--- a/North Spine Canteen Details.xlsx
+++ b/North Spine Canteen Details.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="opening hours" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="352">
   <si>
     <t>s</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Ginger &amp; Onion Pork Rice</t>
   </si>
   <si>
-    <t>Pizza Hut</t>
-  </si>
-  <si>
     <t>Chicken Rice</t>
   </si>
   <si>
@@ -185,39 +182,21 @@
     <t>Tom Yam Yong Tau Fu</t>
   </si>
   <si>
-    <t>Mala Hot Pot</t>
-  </si>
-  <si>
     <t>Fishball Vermicelli Soup</t>
   </si>
   <si>
     <t>Fishball Soup</t>
   </si>
   <si>
-    <t>BBQ Delight</t>
-  </si>
-  <si>
     <t>Yong Tau Fu Dry</t>
   </si>
   <si>
-    <t>Italian Pasta</t>
-  </si>
-  <si>
     <t>Spicy Yong Tau Fu</t>
   </si>
   <si>
-    <t>Asian</t>
-  </si>
-  <si>
-    <t>Japanese Korean Delight</t>
-  </si>
-  <si>
     <t>Laksa Yong Tau Fu</t>
   </si>
   <si>
-    <t>Xi'an Mei Shi</t>
-  </si>
-  <si>
     <t>Steamed Chicken Rice</t>
   </si>
   <si>
@@ -230,9 +209,6 @@
     <t>Roasted Chicken Noodle</t>
   </si>
   <si>
-    <t>Xi'An Mei Shi</t>
-  </si>
-  <si>
     <t>Lemon Chicken Rice</t>
   </si>
   <si>
@@ -527,51 +503,6 @@
     <t>Seafood (100g)</t>
   </si>
   <si>
-    <t>Salmon Fish + Chicken Karaage</t>
-  </si>
-  <si>
-    <t>Japanese &amp; Korean</t>
-  </si>
-  <si>
-    <t>Salmon Fish + Chicken Bento</t>
-  </si>
-  <si>
-    <t>Saba + Chicken Cutlet Bento</t>
-  </si>
-  <si>
-    <t>Fish Fillet + Chicken Bento</t>
-  </si>
-  <si>
-    <t>Fish Fillet + Chicken Cutlet Bento</t>
-  </si>
-  <si>
-    <t>Chicken Cutlet Ramen</t>
-  </si>
-  <si>
-    <t>Chicken Udon</t>
-  </si>
-  <si>
-    <t>Oyako Don</t>
-  </si>
-  <si>
-    <t>Salmon Don</t>
-  </si>
-  <si>
-    <t>Pork Cutlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicken Cutlet Curry Rice </t>
-  </si>
-  <si>
-    <t>Hotplate Saba Set</t>
-  </si>
-  <si>
-    <t>Hotplate Pork Set</t>
-  </si>
-  <si>
-    <t>Hotplate Chicken + Beef Set</t>
-  </si>
-  <si>
     <t>Chargrill Chicken Set</t>
   </si>
   <si>
@@ -605,9 +536,6 @@
     <t>Grill Sirloin Steak Set (Black Pepper)</t>
   </si>
   <si>
-    <t>Garlic Bread</t>
-  </si>
-  <si>
     <t>Crinkle Cut French Fries</t>
   </si>
   <si>
@@ -632,63 +560,6 @@
     <t xml:space="preserve">Rice </t>
   </si>
   <si>
-    <t>Claypot Chicken with Rice</t>
-  </si>
-  <si>
-    <t>Claypot Pork Ribs with Rice</t>
-  </si>
-  <si>
-    <t>Claypot Beef with Rice</t>
-  </si>
-  <si>
-    <t>Claypot Seafood with Rice</t>
-  </si>
-  <si>
-    <t>Biang Biang Noodle</t>
-  </si>
-  <si>
-    <t>Spicy &amp; Sour Noodle (Soozi Mian)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zha Jiang Noodle </t>
-  </si>
-  <si>
-    <t>Fried Egg with Tomato Noodle</t>
-  </si>
-  <si>
-    <t>Hot &amp; Dry Noodle</t>
-  </si>
-  <si>
-    <t>Chinese Hamburger</t>
-  </si>
-  <si>
-    <t>Sesame Liang Pi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steamed Vegetables </t>
-  </si>
-  <si>
-    <t>Jian Bao (5pcs)</t>
-  </si>
-  <si>
-    <t>Pancake with Green Onion</t>
-  </si>
-  <si>
-    <t>Beef Dumpling (10pcs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pork Dumpling (10pcs) </t>
-  </si>
-  <si>
-    <t>Wanton Soup</t>
-  </si>
-  <si>
-    <t>Hula Soup/ Camellia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bean Curd </t>
-  </si>
-  <si>
     <t>Everyday Value Fresh Meals - BBQ Chicken</t>
   </si>
   <si>
@@ -968,87 +839,12 @@
     <t>Mango peach froyo</t>
   </si>
   <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>$4.00</t>
-  </si>
-  <si>
-    <t>Half pizza(choice of any 1 topping)</t>
-  </si>
-  <si>
-    <t>$11.00</t>
-  </si>
-  <si>
-    <t>Full 16" pizza(choice of any 1 topping)</t>
-  </si>
-  <si>
-    <t>$21.00</t>
-  </si>
-  <si>
-    <t>meal A 1 pizza slice+1 drinks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meal B 1 pizza slice+1 drink+2 wings/drumlets </t>
-  </si>
-  <si>
-    <t>$6.20</t>
-  </si>
-  <si>
-    <t>meal C 1 pizza slice+1 soup+1 drink</t>
-  </si>
-  <si>
-    <t>Baked pasta/rice+1 soup+1 drink</t>
-  </si>
-  <si>
-    <t>$7.90</t>
-  </si>
-  <si>
-    <t>beef lasagne</t>
-  </si>
-  <si>
-    <t>$7.00</t>
-  </si>
-  <si>
-    <t>curry zazzle baked rice</t>
-  </si>
-  <si>
-    <t>warm apple tart</t>
-  </si>
-  <si>
-    <t>canned drink</t>
-  </si>
-  <si>
-    <t>$1.30</t>
-  </si>
-  <si>
-    <t>mineral water</t>
-  </si>
-  <si>
     <t>$1.50</t>
   </si>
   <si>
     <t>$2.80</t>
   </si>
   <si>
-    <t>soup of the day</t>
-  </si>
-  <si>
-    <t>honey roasted wings(4 pcs)</t>
-  </si>
-  <si>
-    <t>$3.50</t>
-  </si>
-  <si>
-    <t>Sweet 'N' Spicy drumlets(4 pcs)</t>
-  </si>
-  <si>
-    <t>Mozzarella Cheese sticks(4 pcs)</t>
-  </si>
-  <si>
-    <t>Salmon Croquette(4 pcs)</t>
-  </si>
-  <si>
     <t>Classic Angus Cheese</t>
   </si>
   <si>
@@ -1275,6 +1071,12 @@
   </si>
   <si>
     <t>McDonalds</t>
+  </si>
+  <si>
+    <t>Pasta</t>
+  </si>
+  <si>
+    <t>Mala</t>
   </si>
 </sst>
 </file>
@@ -1327,14 +1129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1347,7 +1142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1356,12 +1151,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1601,16 +1393,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:A42"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="3" max="4" width="14.42578125" style="19"/>
+    <col min="3" max="4" width="14.42578125" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1620,10 +1412,10 @@
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1634,10 +1426,10 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="12">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="12">
         <v>0.85416666666666663</v>
       </c>
     </row>
@@ -1648,10 +1440,10 @@
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="13">
         <v>0.375</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="12">
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -1662,10 +1454,10 @@
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="12">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="12">
         <v>0.85416666666666663</v>
       </c>
     </row>
@@ -1676,584 +1468,470 @@
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="13">
         <v>0.375</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="13">
         <v>0.625</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="12">
         <v>0.875</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="13">
         <v>0.375</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="12">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="12">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="12">
         <v>0.85416666666666663</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="13">
         <v>0.375</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="13">
         <v>0.625</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="12">
         <v>0.875</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="13">
         <v>0.375</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="12">
         <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="12">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="12">
         <v>0.875</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="13">
         <v>0.375</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="13">
         <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="14">
         <v>0.29166666666666669</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="14">
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="12">
         <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="12">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="12">
         <v>0.85416666666666663</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="12">
         <v>0.375</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="13">
         <v>0.625</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="12">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="12">
         <v>0.85416666666666663</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="12">
         <v>0.375</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="13">
         <v>0.625</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="15">
         <v>0.3125</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="14">
         <v>0.85416666666666663</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="12">
         <v>0.375</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="13">
         <v>0.625</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="12">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="12">
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="12">
         <v>0.375</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="13">
         <v>0.625</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>54</v>
+        <v>351</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="12">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="12">
         <v>0.875</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>54</v>
+        <v>351</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="12">
         <v>0.375</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="12">
         <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>62</v>
+        <v>350</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="12">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D26" s="15">
-        <v>0.875</v>
+      <c r="D26" s="14">
+        <v>0.85416666666666663</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>62</v>
+      <c r="A27" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="12">
         <v>0.375</v>
       </c>
-      <c r="D27" s="16">
-        <v>0.58333333333333337</v>
+      <c r="D27" s="13">
+        <v>0.625</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>59</v>
+        <v>349</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="15">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="D28" s="17">
-        <v>0.85416666666666663</v>
-      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>59</v>
+      <c r="A29" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="15">
-        <v>0.375</v>
-      </c>
-      <c r="D29" s="16">
-        <v>0.625</v>
-      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>57</v>
+      <c r="A30" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="15">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="D30" s="17">
-        <v>0.85416666666666663</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="15">
-        <v>0.375</v>
-      </c>
-      <c r="D31" s="16">
-        <v>0.54166666666666663</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="15">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="D32" s="17">
-        <v>0.85416666666666663</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="15">
-        <v>0.375</v>
-      </c>
-      <c r="D33" s="15">
-        <v>0.54166666666666663</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>417</v>
+        <v>347</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+      <c r="C34" s="14">
+        <v>0.3125</v>
+      </c>
+      <c r="D34" s="14">
+        <v>0.91666666666666663</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
-        <v>417</v>
+      <c r="A35" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
+      <c r="C35" s="14">
+        <v>0.3125</v>
+      </c>
+      <c r="D35" s="14">
+        <v>0.91666666666666663</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
-        <v>417</v>
+      <c r="A36" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
+        <v>63</v>
+      </c>
+      <c r="C36" s="14">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D36" s="14">
+        <v>0.91666666666666663</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="C37" s="14">
+        <v>0.3125</v>
+      </c>
+      <c r="D37" s="14">
+        <v>0.91666666666666663</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
+      <c r="C38" s="14">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D38" s="14">
+        <v>0.83333333333333337</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="17">
-        <v>0.3125</v>
-      </c>
-      <c r="D40" s="17">
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="17">
-        <v>0.3125</v>
-      </c>
-      <c r="D41" s="17">
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="17">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D42" s="17">
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="17">
-        <v>0.3125</v>
-      </c>
-      <c r="D43" s="17">
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="17">
+        <v>63</v>
+      </c>
+      <c r="C39" s="14">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D39" s="14">
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="17">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D45" s="17">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="B49" s="8" t="s">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2267,17 +1945,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F355"/>
+  <dimension ref="A1:F304"/>
   <sheetViews>
-    <sheetView topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="A265" sqref="A265:A307"/>
+    <sheetView topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="A214" sqref="A214:XFD231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="9" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2288,7 +1966,7 @@
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2304,7 +1982,7 @@
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>4.8</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2320,7 +1998,7 @@
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="9">
         <v>3.8</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2336,7 +2014,7 @@
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="9">
         <v>3.8</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2352,7 +2030,7 @@
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="9">
         <v>4.8</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2368,7 +2046,7 @@
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="9">
         <v>3.8</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2384,7 +2062,7 @@
       <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="9">
         <v>3.8</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2400,7 +2078,7 @@
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="9">
         <v>3.8</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2416,7 +2094,7 @@
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="9">
         <v>3.8</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -2432,7 +2110,7 @@
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="9">
         <v>3.8</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2448,7 +2126,7 @@
       <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="9">
         <v>4.5</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -2462,9 +2140,9 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="12">
+        <v>30</v>
+      </c>
+      <c r="C12" s="9">
         <v>4.2</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -2478,9 +2156,9 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="12">
+        <v>33</v>
+      </c>
+      <c r="C13" s="9">
         <v>4.2</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -2494,9 +2172,9 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="12">
+        <v>34</v>
+      </c>
+      <c r="C14" s="9">
         <v>4.2</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2510,9 +2188,9 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="12">
+        <v>37</v>
+      </c>
+      <c r="C15" s="9">
         <v>4.2</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2526,9 +2204,9 @@
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="12">
+        <v>38</v>
+      </c>
+      <c r="C16" s="9">
         <v>4.2</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -2542,9 +2220,9 @@
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="12">
+        <v>42</v>
+      </c>
+      <c r="C17" s="9">
         <v>4.8</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -2558,9 +2236,9 @@
         <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="12">
+        <v>44</v>
+      </c>
+      <c r="C18" s="9">
         <v>3.3</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2574,9 +2252,9 @@
         <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="12">
+        <v>46</v>
+      </c>
+      <c r="C19" s="9">
         <v>3.3</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -2590,9 +2268,9 @@
         <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="12">
+        <v>49</v>
+      </c>
+      <c r="C20" s="9">
         <v>3.3</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -2606,9 +2284,9 @@
         <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="12">
+        <v>50</v>
+      </c>
+      <c r="C21" s="9">
         <v>3.3</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -2622,9 +2300,9 @@
         <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="12">
+        <v>52</v>
+      </c>
+      <c r="C22" s="9">
         <v>3.3</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2638,9 +2316,9 @@
         <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="12">
+        <v>53</v>
+      </c>
+      <c r="C23" s="9">
         <v>3.5</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -2654,9 +2332,9 @@
         <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="12">
+        <v>54</v>
+      </c>
+      <c r="C24" s="9">
         <v>3.5</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -2670,9 +2348,9 @@
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="12">
+        <v>55</v>
+      </c>
+      <c r="C25" s="9">
         <v>3.5</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2686,9 +2364,9 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="12">
+        <v>56</v>
+      </c>
+      <c r="C26" s="9">
         <v>3.5</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -2702,9 +2380,9 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="12">
+        <v>57</v>
+      </c>
+      <c r="C27" s="9">
         <v>3.5</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -2715,12 +2393,12 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="12">
+        <v>58</v>
+      </c>
+      <c r="C28" s="9">
         <v>3</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -2731,12 +2409,12 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="12">
+        <v>59</v>
+      </c>
+      <c r="C29" s="9">
         <v>4.5</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -2747,12 +2425,12 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="12">
+        <v>60</v>
+      </c>
+      <c r="C30" s="9">
         <v>3</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2763,12 +2441,12 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="12">
+        <v>61</v>
+      </c>
+      <c r="C31" s="9">
         <v>3</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -2779,12 +2457,12 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="12">
+        <v>62</v>
+      </c>
+      <c r="C32" s="9">
         <v>3</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -2795,12 +2473,12 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="12">
+        <v>64</v>
+      </c>
+      <c r="C33" s="9">
         <v>3</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -2811,12 +2489,12 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="12">
+        <v>65</v>
+      </c>
+      <c r="C34" s="9">
         <v>0.6</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -2827,12 +2505,12 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="12">
+        <v>66</v>
+      </c>
+      <c r="C35" s="9">
         <v>0.6</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -2843,12 +2521,12 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="12">
+        <v>67</v>
+      </c>
+      <c r="C36" s="9">
         <v>3</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -2859,12 +2537,12 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="12">
+        <v>68</v>
+      </c>
+      <c r="C37" s="9">
         <v>3</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2875,12 +2553,12 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="12">
+        <v>69</v>
+      </c>
+      <c r="C38" s="9">
         <v>3</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -2891,12 +2569,12 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="12">
+        <v>70</v>
+      </c>
+      <c r="C39" s="9">
         <v>3</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -2907,12 +2585,12 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="12">
+        <v>71</v>
+      </c>
+      <c r="C40" s="9">
         <v>3</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -2923,12 +2601,12 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="12">
+        <v>72</v>
+      </c>
+      <c r="C41" s="9">
         <v>3</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -2939,12 +2617,12 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="12">
+        <v>73</v>
+      </c>
+      <c r="C42" s="9">
         <v>3</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -2955,12 +2633,12 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="12">
+        <v>74</v>
+      </c>
+      <c r="C43" s="9">
         <v>3.5</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -2971,12 +2649,12 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="12">
+        <v>75</v>
+      </c>
+      <c r="C44" s="9">
         <v>3.5</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -2987,12 +2665,12 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="12">
+        <v>76</v>
+      </c>
+      <c r="C45" s="9">
         <v>3.8</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -3003,12 +2681,12 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" s="12">
+        <v>77</v>
+      </c>
+      <c r="C46" s="9">
         <v>3.5</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -3019,12 +2697,12 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="12">
+        <v>78</v>
+      </c>
+      <c r="C47" s="9">
         <v>3.5</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -3035,12 +2713,12 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C48" s="12">
+        <v>79</v>
+      </c>
+      <c r="C48" s="9">
         <v>2.4</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -3051,12 +2729,12 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" s="12">
+        <v>80</v>
+      </c>
+      <c r="C49" s="9">
         <v>4</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -3067,12 +2745,12 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" s="12">
+        <v>81</v>
+      </c>
+      <c r="C50" s="9">
         <v>2.2999999999999998</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -3083,12 +2761,12 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="12">
+        <v>82</v>
+      </c>
+      <c r="C51" s="9">
         <v>4.4000000000000004</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -3099,12 +2777,12 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C52" s="12">
+        <v>83</v>
+      </c>
+      <c r="C52" s="9">
         <v>3.7</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -3115,604 +2793,604 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C53" s="12">
+        <v>84</v>
+      </c>
+      <c r="C53" s="9">
         <v>6.3</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C54" s="12">
+        <v>85</v>
+      </c>
+      <c r="C54" s="9">
         <v>4.8</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C55" s="12">
+        <v>86</v>
+      </c>
+      <c r="C55" s="9">
         <v>4.8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C56" s="12">
+        <v>87</v>
+      </c>
+      <c r="C56" s="9">
         <v>4.8</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C57" s="12">
+        <v>88</v>
+      </c>
+      <c r="C57" s="9">
         <v>4.3</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" s="12">
+        <v>89</v>
+      </c>
+      <c r="C58" s="9">
         <v>4.8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" s="12">
+        <v>90</v>
+      </c>
+      <c r="C59" s="9">
         <v>4.8</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C60" s="12">
+        <v>91</v>
+      </c>
+      <c r="C60" s="9">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="8" t="s">
-        <v>42</v>
+      <c r="A61" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C61" s="12">
+        <v>93</v>
+      </c>
+      <c r="C61" s="9">
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="8" t="s">
-        <v>42</v>
+      <c r="A62" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C62" s="12">
+        <v>94</v>
+      </c>
+      <c r="C62" s="9">
         <v>2</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="8" t="s">
-        <v>42</v>
+      <c r="A63" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C63" s="12">
+        <v>95</v>
+      </c>
+      <c r="C63" s="9">
         <v>0.9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="8" t="s">
-        <v>42</v>
+      <c r="A64" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C64" s="12">
+        <v>96</v>
+      </c>
+      <c r="C64" s="9">
         <v>1.2</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="8" t="s">
-        <v>42</v>
+      <c r="A65" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C65" s="12">
+        <v>97</v>
+      </c>
+      <c r="C65" s="9">
         <v>0.7</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="8" t="s">
-        <v>42</v>
+      <c r="A66" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C66" s="12">
+        <v>98</v>
+      </c>
+      <c r="C66" s="9">
         <v>0.7</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="8" t="s">
-        <v>42</v>
+      <c r="A67" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C67" s="12">
+        <v>99</v>
+      </c>
+      <c r="C67" s="9">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="8" t="s">
-        <v>42</v>
+      <c r="A68" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C68" s="12">
+        <v>100</v>
+      </c>
+      <c r="C68" s="9">
         <v>0.2</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="8" t="s">
-        <v>42</v>
+      <c r="A69" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C69" s="12">
+        <v>101</v>
+      </c>
+      <c r="C69" s="9">
         <v>0.9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="8" t="s">
-        <v>42</v>
+      <c r="A70" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C70" s="12">
+        <v>102</v>
+      </c>
+      <c r="C70" s="9">
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="8" t="s">
-        <v>42</v>
+      <c r="A71" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C71" s="12">
+        <v>103</v>
+      </c>
+      <c r="C71" s="9">
         <v>0.8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="8" t="s">
-        <v>42</v>
+      <c r="A72" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C72" s="12">
+        <v>104</v>
+      </c>
+      <c r="C72" s="9">
         <v>0.8</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="8" t="s">
-        <v>42</v>
+      <c r="A73" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C73" s="12">
+        <v>105</v>
+      </c>
+      <c r="C73" s="9">
         <v>0.8</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="8" t="s">
-        <v>42</v>
+      <c r="A74" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C74" s="12">
+        <v>106</v>
+      </c>
+      <c r="C74" s="9">
         <v>0.8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="8" t="s">
-        <v>42</v>
+      <c r="A75" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C75" s="12">
+      <c r="C75" s="9">
         <v>0.7</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="8" t="s">
-        <v>42</v>
+      <c r="A76" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C76" s="12">
+        <v>107</v>
+      </c>
+      <c r="C76" s="9">
         <v>0.7</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="8" t="s">
-        <v>42</v>
+      <c r="A77" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C77" s="12">
+        <v>108</v>
+      </c>
+      <c r="C77" s="9">
         <v>0.6</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="8" t="s">
-        <v>42</v>
+      <c r="A78" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C78" s="12">
+        <v>109</v>
+      </c>
+      <c r="C78" s="9">
         <v>0.6</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="8" t="s">
-        <v>42</v>
+      <c r="A79" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C79" s="12">
+        <v>110</v>
+      </c>
+      <c r="C79" s="9">
         <v>1.2</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="8" t="s">
-        <v>42</v>
+      <c r="A80" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C80" s="12">
+        <v>112</v>
+      </c>
+      <c r="C80" s="9">
         <v>1.2</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="8" t="s">
-        <v>42</v>
+      <c r="A81" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C81" s="12">
+        <v>113</v>
+      </c>
+      <c r="C81" s="9">
         <v>1.2</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="8" t="s">
-        <v>42</v>
+      <c r="A82" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C82" s="12">
+        <v>114</v>
+      </c>
+      <c r="C82" s="9">
         <v>1.2</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="8" t="s">
-        <v>42</v>
+      <c r="A83" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C83" s="12">
+        <v>115</v>
+      </c>
+      <c r="C83" s="9">
         <v>1.2</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="8" t="s">
-        <v>42</v>
+      <c r="A84" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C84" s="12">
+        <v>116</v>
+      </c>
+      <c r="C84" s="9">
         <v>1.2</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="8" t="s">
-        <v>42</v>
+      <c r="A85" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C85" s="12">
+        <v>117</v>
+      </c>
+      <c r="C85" s="9">
         <v>0.8</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="8" t="s">
-        <v>42</v>
+      <c r="A86" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C86" s="12">
+        <v>118</v>
+      </c>
+      <c r="C86" s="9">
         <v>0.8</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="8" t="s">
-        <v>42</v>
+      <c r="A87" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C87" s="12">
+        <v>119</v>
+      </c>
+      <c r="C87" s="9">
         <v>0.8</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="8" t="s">
-        <v>42</v>
+      <c r="A88" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C88" s="12">
+        <v>120</v>
+      </c>
+      <c r="C88" s="9">
         <v>0.8</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="8" t="s">
-        <v>42</v>
+      <c r="A89" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C89" s="12">
+        <v>121</v>
+      </c>
+      <c r="C89" s="9">
         <v>0.8</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C90" s="12">
+        <v>122</v>
+      </c>
+      <c r="C90" s="9">
         <v>4</v>
       </c>
       <c r="D90" s="2" t="s">
@@ -3723,12 +3401,12 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C91" s="12">
+        <v>123</v>
+      </c>
+      <c r="C91" s="9">
         <v>4</v>
       </c>
       <c r="D91" s="2" t="s">
@@ -3739,12 +3417,12 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C92" s="12">
+        <v>124</v>
+      </c>
+      <c r="C92" s="9">
         <v>4</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -3755,12 +3433,12 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C93" s="12">
+        <v>125</v>
+      </c>
+      <c r="C93" s="9">
         <v>4</v>
       </c>
       <c r="D93" s="2" t="s">
@@ -3771,12 +3449,12 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C94" s="12">
+        <v>126</v>
+      </c>
+      <c r="C94" s="9">
         <v>3.8</v>
       </c>
       <c r="D94" s="2" t="s">
@@ -3787,12 +3465,12 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C95" s="12">
+        <v>127</v>
+      </c>
+      <c r="C95" s="9">
         <v>3.8</v>
       </c>
       <c r="D95" s="2" t="s">
@@ -3803,12 +3481,12 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C96" s="12">
+        <v>128</v>
+      </c>
+      <c r="C96" s="9">
         <v>1.2</v>
       </c>
       <c r="D96" s="2" t="s">
@@ -3819,12 +3497,12 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C97" s="12">
+        <v>129</v>
+      </c>
+      <c r="C97" s="9">
         <v>1.2</v>
       </c>
       <c r="D97" s="2" t="s">
@@ -3835,12 +3513,12 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C98" s="12">
+        <v>65</v>
+      </c>
+      <c r="C98" s="9">
         <v>0.5</v>
       </c>
       <c r="D98" s="2" t="s">
@@ -3851,12 +3529,12 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C99" s="12">
+        <v>130</v>
+      </c>
+      <c r="C99" s="9">
         <v>4.2</v>
       </c>
       <c r="D99" s="2" t="s">
@@ -3867,444 +3545,444 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C100" s="12">
+        <v>131</v>
+      </c>
+      <c r="C100" s="9">
         <v>4</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C101" s="12">
+        <v>132</v>
+      </c>
+      <c r="C101" s="9">
         <v>4</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C102" s="12">
+        <v>133</v>
+      </c>
+      <c r="C102" s="9">
         <v>5.2</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C103" s="12">
+        <v>134</v>
+      </c>
+      <c r="C103" s="9">
         <v>4.2</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C104" s="12">
+        <v>135</v>
+      </c>
+      <c r="C104" s="9">
         <v>3.8</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C105" s="12">
+        <v>134</v>
+      </c>
+      <c r="C105" s="9">
         <v>4</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C106" s="12">
+        <v>136</v>
+      </c>
+      <c r="C106" s="9">
         <v>2.8</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C107" s="12">
+        <v>137</v>
+      </c>
+      <c r="C107" s="9">
         <v>2.8</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C108" s="12">
+        <v>138</v>
+      </c>
+      <c r="C108" s="9">
         <v>2.8</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C109" s="12">
+        <v>139</v>
+      </c>
+      <c r="C109" s="9">
         <v>2.8</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C110" s="12">
+        <v>140</v>
+      </c>
+      <c r="C110" s="9">
         <v>3</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="8" t="s">
-        <v>49</v>
+      <c r="A111" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C111" s="12">
+        <v>141</v>
+      </c>
+      <c r="C111" s="9">
         <v>3</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="8" t="s">
-        <v>49</v>
+      <c r="A112" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C112" s="12">
+        <v>142</v>
+      </c>
+      <c r="C112" s="9">
         <v>3</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="8" t="s">
-        <v>49</v>
+      <c r="A113" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C113" s="12">
+        <v>138</v>
+      </c>
+      <c r="C113" s="9">
         <v>2.8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="8" t="s">
-        <v>49</v>
+      <c r="A114" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C114" s="12">
+        <v>143</v>
+      </c>
+      <c r="C114" s="9">
         <v>3</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="8" t="s">
-        <v>49</v>
+      <c r="A115" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C115" s="12">
+        <v>144</v>
+      </c>
+      <c r="C115" s="9">
         <v>2.8</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="8" t="s">
-        <v>49</v>
+      <c r="A116" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C116" s="12">
+        <v>145</v>
+      </c>
+      <c r="C116" s="9">
         <v>2.8</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C117" s="12">
+        <v>146</v>
+      </c>
+      <c r="C117" s="9">
         <v>3.9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C118" s="12">
+        <v>147</v>
+      </c>
+      <c r="C118" s="9">
         <v>4.5</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C119" s="12">
+        <v>148</v>
+      </c>
+      <c r="C119" s="9">
         <v>3.9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C120" s="12">
+        <v>149</v>
+      </c>
+      <c r="C120" s="9">
         <v>4.5</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C121" s="12">
+        <v>150</v>
+      </c>
+      <c r="C121" s="9">
         <v>3.9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C122" s="12">
+        <v>151</v>
+      </c>
+      <c r="C122" s="9">
         <v>4.9000000000000004</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C123" s="12">
+        <v>152</v>
+      </c>
+      <c r="C123" s="9">
         <v>3.9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C124" s="12">
+        <v>153</v>
+      </c>
+      <c r="C124" s="9">
         <v>4.9000000000000004</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C125" s="12">
+        <v>154</v>
+      </c>
+      <c r="C125" s="9">
         <v>3.9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C126" s="12">
+        <v>155</v>
+      </c>
+      <c r="C126" s="9">
         <v>4.9000000000000004</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>54</v>
+        <v>351</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C127" s="12">
+        <v>156</v>
+      </c>
+      <c r="C127" s="9">
         <v>1.2</v>
       </c>
       <c r="D127" s="2" t="s">
@@ -4314,13 +3992,13 @@
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
-        <v>54</v>
+      <c r="A128" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C128" s="12">
+        <v>157</v>
+      </c>
+      <c r="C128" s="9">
         <v>1.4</v>
       </c>
       <c r="D128" s="2" t="s">
@@ -4330,13 +4008,13 @@
       <c r="F128" s="2"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
-        <v>54</v>
+      <c r="A129" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C129" s="12">
+        <v>158</v>
+      </c>
+      <c r="C129" s="9">
         <v>1.8</v>
       </c>
       <c r="D129" s="2" t="s">
@@ -4346,13 +4024,13 @@
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
-        <v>54</v>
+      <c r="A130" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C130" s="12">
+        <v>159</v>
+      </c>
+      <c r="C130" s="9">
         <v>2.2999999999999998</v>
       </c>
       <c r="D130" s="2" t="s">
@@ -4363,597 +4041,605 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>62</v>
+        <v>350</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C131" s="12">
-        <v>5.2</v>
+        <v>160</v>
+      </c>
+      <c r="C131" s="9">
+        <v>4.8</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
-        <v>62</v>
+      <c r="A132" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C132" s="12">
-        <v>5.2</v>
+        <v>161</v>
+      </c>
+      <c r="C132" s="9">
+        <v>4.8</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
-        <v>62</v>
+      <c r="A133" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C133" s="12">
-        <v>5.2</v>
+        <v>162</v>
+      </c>
+      <c r="C133" s="9">
+        <v>4.8</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
-        <v>62</v>
+      <c r="A134" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C134" s="12">
-        <v>5.2</v>
+        <v>163</v>
+      </c>
+      <c r="C134" s="9">
+        <v>4.8</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
-        <v>62</v>
+      <c r="A135" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C135" s="12">
-        <v>5.2</v>
+        <v>164</v>
+      </c>
+      <c r="C135" s="9">
+        <v>4.8</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
-        <v>62</v>
+      <c r="A136" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C136" s="12">
+        <v>165</v>
+      </c>
+      <c r="C136" s="9">
         <v>4.8</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
-        <v>62</v>
+      <c r="A137" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C137" s="12">
+        <v>166</v>
+      </c>
+      <c r="C137" s="9">
         <v>4.8</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
-        <v>62</v>
+      <c r="A138" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C138" s="12">
+        <v>167</v>
+      </c>
+      <c r="C138" s="9">
         <v>4.8</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
-        <v>62</v>
+      <c r="A139" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C139" s="12">
-        <v>4.8</v>
+        <v>168</v>
+      </c>
+      <c r="C139" s="9">
+        <v>6.5</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
-        <v>62</v>
+      <c r="A140" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C140" s="12">
-        <v>4.2</v>
+        <v>169</v>
+      </c>
+      <c r="C140" s="9">
+        <v>5.8</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
-        <v>62</v>
+      <c r="A141" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C141" s="12">
-        <v>4.2</v>
+        <v>170</v>
+      </c>
+      <c r="C141" s="9">
+        <v>6.8</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
-        <v>62</v>
+      <c r="A142" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C142" s="12">
-        <v>5.5</v>
+        <v>171</v>
+      </c>
+      <c r="C142" s="9">
+        <v>2.2000000000000002</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
-        <v>62</v>
+      <c r="A143" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C143" s="12">
-        <v>5.8</v>
+        <v>172</v>
+      </c>
+      <c r="C143" s="9">
+        <v>3.2</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
-        <v>62</v>
+      <c r="A144" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C144" s="12">
-        <v>5.8</v>
+        <v>173</v>
+      </c>
+      <c r="C144" s="9">
+        <v>4</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
-        <v>59</v>
+      <c r="A145" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C145" s="12">
-        <v>4.8</v>
+        <v>174</v>
+      </c>
+      <c r="C145" s="9">
+        <v>2.2000000000000002</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
-        <v>59</v>
+      <c r="A146" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C146" s="12">
-        <v>4.8</v>
+        <v>175</v>
+      </c>
+      <c r="C146" s="9">
+        <v>0.5</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
-        <v>59</v>
+      <c r="A147" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C147" s="12">
-        <v>4.8</v>
+        <v>176</v>
+      </c>
+      <c r="C147" s="9">
+        <v>2</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
-        <v>59</v>
+      <c r="A148" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C148" s="12">
-        <v>4.8</v>
+        <v>177</v>
+      </c>
+      <c r="C148" s="9">
+        <v>2</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
-        <v>59</v>
+      <c r="A149" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C149" s="12">
-        <v>4.8</v>
+        <v>178</v>
+      </c>
+      <c r="C149" s="9">
+        <v>0.5</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C150" s="12">
-        <v>4.8</v>
+        <v>179</v>
+      </c>
+      <c r="C150" s="9">
+        <v>5.9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C151" s="12">
-        <v>4.8</v>
+        <v>180</v>
+      </c>
+      <c r="C151" s="9">
+        <v>5.9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C152" s="12">
-        <v>4.8</v>
+        <v>181</v>
+      </c>
+      <c r="C152" s="9">
+        <v>5.9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C153" s="12">
-        <v>6.5</v>
+        <v>182</v>
+      </c>
+      <c r="C153" s="9">
+        <v>5.9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C154" s="12">
-        <v>5.8</v>
+        <v>184</v>
+      </c>
+      <c r="C154" s="9">
+        <v>3.8</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C155" s="12">
-        <v>6.8</v>
+        <v>186</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C156" s="12">
-        <v>2.2000000000000002</v>
+        <v>188</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C157" s="12">
-        <v>3.2</v>
+        <v>189</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C158" s="12">
-        <v>4</v>
+        <v>190</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C159" s="12">
-        <v>2.2000000000000002</v>
+        <v>192</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C160" s="12">
-        <v>0.5</v>
+        <v>193</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C161" s="12">
-        <v>2</v>
+        <v>195</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C162" s="12">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C163" s="12">
-        <v>0.5</v>
+        <v>197</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C164" s="12">
-        <v>4.8</v>
-      </c>
-      <c r="D164" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E164" s="2"/>
-      <c r="F164" s="10"/>
+      <c r="F164" s="2"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C165" s="12">
-        <v>5.8</v>
-      </c>
-      <c r="D165" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E165" s="2"/>
-      <c r="F165" s="11"/>
+      <c r="F165" s="2"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C166" s="12">
-        <v>6.8</v>
-      </c>
-      <c r="D166" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E166" s="2"/>
-      <c r="F166" s="11"/>
+      <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C167" s="12">
-        <v>6.8</v>
-      </c>
-      <c r="D167" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E167" s="2"/>
-      <c r="F167" s="11"/>
+      <c r="F167" s="2"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C168" s="12">
-        <v>3.2</v>
+        <v>203</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>16</v>
@@ -4963,237 +4649,237 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>64</v>
+        <v>347</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C169" s="12">
-        <v>4.2</v>
+        <v>205</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" s="2" t="s">
-        <v>64</v>
+      <c r="A170" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C170" s="12">
-        <v>4.2</v>
+        <v>206</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>207</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="2" t="s">
-        <v>64</v>
+      <c r="A171" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C171" s="12">
-        <v>4.2</v>
+        <v>208</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="2" t="s">
-        <v>64</v>
+      <c r="A172" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C172" s="12">
-        <v>4.2</v>
+        <v>209</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>210</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="2" t="s">
-        <v>64</v>
+      <c r="A173" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C173" s="12">
-        <v>2.8</v>
+        <v>211</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>207</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" s="2" t="s">
-        <v>64</v>
+      <c r="A174" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C174" s="12">
-        <v>3.2</v>
+        <v>212</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>210</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="2" t="s">
-        <v>64</v>
+      <c r="A175" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C175" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C175" s="12">
-        <v>2.2000000000000002</v>
-      </c>
       <c r="D175" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="2" t="s">
-        <v>64</v>
+      <c r="A176" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C176" s="12">
-        <v>2.2000000000000002</v>
+      <c r="C176" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" s="2" t="s">
-        <v>64</v>
+      <c r="A177" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C177" s="12">
-        <v>1.2</v>
+        <v>218</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>219</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" s="2" t="s">
-        <v>64</v>
+      <c r="A178" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C178" s="12">
-        <v>5.2</v>
+        <v>220</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" s="2" t="s">
-        <v>64</v>
+      <c r="A179" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C179" s="12">
-        <v>4.2</v>
+        <v>221</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180" s="2" t="s">
-        <v>64</v>
+      <c r="A180" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C180" s="12">
-        <v>3.2</v>
+        <v>222</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181" s="2" t="s">
-        <v>64</v>
+      <c r="A181" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C181" s="12">
-        <v>2.2000000000000002</v>
+        <v>223</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="2" t="s">
-        <v>64</v>
+      <c r="A182" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C182" s="12">
-        <v>1.5</v>
+        <v>225</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>204</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" s="2" t="s">
-        <v>32</v>
+      <c r="A183" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C183" s="12">
-        <v>5.9</v>
+        <v>226</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>227</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>13</v>
@@ -5202,14 +4888,14 @@
       <c r="F183" s="2"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="2" t="s">
-        <v>32</v>
+      <c r="A184" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C184" s="12">
-        <v>5.9</v>
+        <v>228</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>204</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>13</v>
@@ -5218,14 +4904,14 @@
       <c r="F184" s="2"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185" s="2" t="s">
-        <v>32</v>
+      <c r="A185" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C185" s="12">
-        <v>5.9</v>
+        <v>229</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>230</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>13</v>
@@ -5234,14 +4920,14 @@
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" s="2" t="s">
-        <v>32</v>
+      <c r="A186" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C186" s="12">
-        <v>5.9</v>
+        <v>178</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>231</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>13</v>
@@ -5250,254 +4936,254 @@
       <c r="F186" s="2"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="2" t="s">
-        <v>226</v>
+      <c r="A187" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C187" s="12">
-        <v>3.8</v>
+        <v>232</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>233</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="2" t="s">
-        <v>226</v>
+      <c r="A188" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C188" s="12" t="s">
-        <v>230</v>
+        <v>234</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>235</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" s="2" t="s">
-        <v>226</v>
+      <c r="A189" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C189" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C189" s="12" t="s">
-        <v>228</v>
-      </c>
       <c r="D189" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" s="2" t="s">
-        <v>226</v>
+      <c r="A190" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C190" s="12" t="s">
-        <v>230</v>
+        <v>237</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>231</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191" s="2" t="s">
-        <v>226</v>
+      <c r="A191" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C191" s="12" t="s">
-        <v>234</v>
+        <v>238</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>231</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" s="2" t="s">
-        <v>226</v>
+      <c r="A192" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C192" s="12" t="s">
-        <v>230</v>
+        <v>240</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>204</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" s="2" t="s">
-        <v>226</v>
+      <c r="A193" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C193" s="12" t="s">
-        <v>237</v>
+        <v>241</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>204</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C194" s="12" t="s">
-        <v>237</v>
+        <v>242</v>
+      </c>
+      <c r="C194" s="9" t="s">
+        <v>243</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C195" s="12" t="s">
-        <v>239</v>
+        <v>244</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>245</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C196" s="12" t="s">
-        <v>239</v>
+        <v>246</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>243</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C197" s="12" t="s">
-        <v>239</v>
+        <v>247</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>245</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C198" s="12" t="s">
-        <v>242</v>
+        <v>248</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C199" s="12" t="s">
-        <v>242</v>
+        <v>250</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>245</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C200" s="12" t="s">
-        <v>245</v>
+        <v>251</v>
+      </c>
+      <c r="C200" s="9" t="s">
+        <v>252</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C201" s="12" t="s">
-        <v>245</v>
+        <v>253</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>252</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>415</v>
+        <v>29</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C202" s="12" t="s">
-        <v>239</v>
+        <v>254</v>
+      </c>
+      <c r="C202" s="9" t="s">
+        <v>252</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>13</v>
@@ -5506,14 +5192,14 @@
       <c r="F202" s="2"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A203" s="8" t="s">
-        <v>415</v>
+      <c r="A203" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C203" s="12" t="s">
-        <v>250</v>
+        <v>255</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>256</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>13</v>
@@ -5522,14 +5208,14 @@
       <c r="F203" s="2"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A204" s="8" t="s">
-        <v>415</v>
+      <c r="A204" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C204" s="12" t="s">
-        <v>239</v>
+        <v>257</v>
+      </c>
+      <c r="C204" s="9" t="s">
+        <v>258</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>13</v>
@@ -5538,14 +5224,14 @@
       <c r="F204" s="2"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A205" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C205" s="12" t="s">
-        <v>253</v>
+      <c r="A205" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>260</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>13</v>
@@ -5554,14 +5240,14 @@
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A206" s="8" t="s">
-        <v>415</v>
+      <c r="A206" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C206" s="12" t="s">
-        <v>250</v>
+        <v>261</v>
+      </c>
+      <c r="C206" s="9" t="s">
+        <v>262</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>13</v>
@@ -5570,14 +5256,14 @@
       <c r="F206" s="2"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A207" s="8" t="s">
-        <v>415</v>
+      <c r="A207" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C207" s="12" t="s">
-        <v>253</v>
+        <v>263</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>264</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>13</v>
@@ -5586,14 +5272,14 @@
       <c r="F207" s="2"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A208" s="8" t="s">
-        <v>415</v>
+      <c r="A208" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C208" s="12" t="s">
-        <v>257</v>
+        <v>265</v>
+      </c>
+      <c r="C208" s="9" t="s">
+        <v>266</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>13</v>
@@ -5602,14 +5288,14 @@
       <c r="F208" s="2"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A209" s="8" t="s">
-        <v>415</v>
+      <c r="A209" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C209" s="12" t="s">
-        <v>257</v>
+        <v>267</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>266</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>13</v>
@@ -5618,14 +5304,14 @@
       <c r="F209" s="2"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="8" t="s">
-        <v>415</v>
+      <c r="A210" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C210" s="12" t="s">
-        <v>262</v>
+        <v>268</v>
+      </c>
+      <c r="C210" s="9" t="s">
+        <v>266</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>13</v>
@@ -5634,14 +5320,14 @@
       <c r="F210" s="2"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211" s="8" t="s">
-        <v>415</v>
+      <c r="A211" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C211" s="12" t="s">
-        <v>230</v>
+        <v>269</v>
+      </c>
+      <c r="C211" s="9" t="s">
+        <v>266</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>13</v>
@@ -5650,14 +5336,14 @@
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A212" s="8" t="s">
-        <v>415</v>
+      <c r="A212" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C212" s="12" t="s">
-        <v>230</v>
+        <v>270</v>
+      </c>
+      <c r="C212" s="9" t="s">
+        <v>266</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>13</v>
@@ -5666,14 +5352,14 @@
       <c r="F212" s="2"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213" s="8" t="s">
-        <v>415</v>
+      <c r="A213" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C213" s="12" t="s">
-        <v>230</v>
+        <v>271</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>204</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>13</v>
@@ -5682,14 +5368,14 @@
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A214" s="8" t="s">
-        <v>415</v>
+      <c r="A214" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C214" s="12" t="s">
-        <v>267</v>
+        <v>274</v>
+      </c>
+      <c r="C214" s="9" t="s">
+        <v>275</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>13</v>
@@ -5698,14 +5384,14 @@
       <c r="F214" s="2"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A215" s="8" t="s">
-        <v>415</v>
+      <c r="A215" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C215" s="12" t="s">
-        <v>247</v>
+        <v>276</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>277</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>13</v>
@@ -5714,14 +5400,14 @@
       <c r="F215" s="2"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A216" s="8" t="s">
-        <v>415</v>
+      <c r="A216" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C216" s="12" t="s">
-        <v>270</v>
+        <v>278</v>
+      </c>
+      <c r="C216" s="9" t="s">
+        <v>279</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>13</v>
@@ -5730,14 +5416,14 @@
       <c r="F216" s="2"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217" s="8" t="s">
-        <v>415</v>
+      <c r="A217" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C217" s="12" t="s">
-        <v>247</v>
+        <v>280</v>
+      </c>
+      <c r="C217" s="9" t="s">
+        <v>281</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>13</v>
@@ -5746,14 +5432,14 @@
       <c r="F217" s="2"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A218" s="8" t="s">
-        <v>415</v>
+      <c r="A218" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C218" s="12" t="s">
-        <v>273</v>
+        <v>282</v>
+      </c>
+      <c r="C218" s="9" t="s">
+        <v>283</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>13</v>
@@ -5762,14 +5448,14 @@
       <c r="F218" s="2"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A219" s="8" t="s">
-        <v>415</v>
+      <c r="A219" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C219" s="12" t="s">
-        <v>274</v>
+        <v>284</v>
+      </c>
+      <c r="C219" s="9" t="s">
+        <v>285</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>13</v>
@@ -5778,14 +5464,14 @@
       <c r="F219" s="2"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A220" s="8" t="s">
-        <v>415</v>
+      <c r="A220" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C220" s="12" t="s">
-        <v>276</v>
+        <v>286</v>
+      </c>
+      <c r="C220" s="9" t="s">
+        <v>285</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>13</v>
@@ -5794,14 +5480,14 @@
       <c r="F220" s="2"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A221" s="8" t="s">
-        <v>415</v>
+      <c r="A221" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C221" s="12" t="s">
-        <v>278</v>
+        <v>287</v>
+      </c>
+      <c r="C221" s="9" t="s">
+        <v>288</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>13</v>
@@ -5810,14 +5496,14 @@
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222" s="8" t="s">
-        <v>415</v>
+      <c r="A222" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C222" s="12" t="s">
-        <v>274</v>
+        <v>289</v>
+      </c>
+      <c r="C222" s="9" t="s">
+        <v>290</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>13</v>
@@ -5826,14 +5512,14 @@
       <c r="F222" s="2"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223" s="8" t="s">
-        <v>415</v>
+      <c r="A223" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C223" s="12" t="s">
-        <v>274</v>
+        <v>291</v>
+      </c>
+      <c r="C223" s="9" t="s">
+        <v>288</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>13</v>
@@ -5842,14 +5528,14 @@
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A224" s="8" t="s">
-        <v>415</v>
+      <c r="A224" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C224" s="12" t="s">
-        <v>274</v>
+        <v>292</v>
+      </c>
+      <c r="C224" s="9" t="s">
+        <v>293</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>13</v>
@@ -5858,14 +5544,14 @@
       <c r="F224" s="2"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A225" s="8" t="s">
-        <v>415</v>
+      <c r="A225" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C225" s="12" t="s">
-        <v>247</v>
+        <v>294</v>
+      </c>
+      <c r="C225" s="9" t="s">
+        <v>295</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>13</v>
@@ -5874,14 +5560,14 @@
       <c r="F225" s="2"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A226" s="8" t="s">
-        <v>415</v>
+      <c r="A226" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C226" s="12" t="s">
-        <v>247</v>
+        <v>296</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>297</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>13</v>
@@ -5890,14 +5576,14 @@
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A227" s="2" t="s">
-        <v>30</v>
+      <c r="A227" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C227" s="12" t="s">
-        <v>286</v>
+        <v>298</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>273</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>13</v>
@@ -5906,14 +5592,14 @@
       <c r="F227" s="2"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A228" s="2" t="s">
-        <v>30</v>
+      <c r="A228" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C228" s="12" t="s">
-        <v>288</v>
+        <v>299</v>
+      </c>
+      <c r="C228" s="9" t="s">
+        <v>204</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>13</v>
@@ -5922,14 +5608,14 @@
       <c r="F228" s="2"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A229" s="2" t="s">
-        <v>30</v>
+      <c r="A229" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C229" s="12" t="s">
-        <v>286</v>
+        <v>300</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>301</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>13</v>
@@ -5938,14 +5624,14 @@
       <c r="F229" s="2"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230" s="2" t="s">
-        <v>30</v>
+      <c r="A230" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C230" s="12" t="s">
-        <v>288</v>
+        <v>302</v>
+      </c>
+      <c r="C230" s="9" t="s">
+        <v>303</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>13</v>
@@ -5954,14 +5640,14 @@
       <c r="F230" s="2"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A231" s="2" t="s">
-        <v>30</v>
+      <c r="A231" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C231" s="12" t="s">
-        <v>292</v>
+        <v>304</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>272</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>13</v>
@@ -5970,14 +5656,14 @@
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232" s="2" t="s">
-        <v>30</v>
+      <c r="A232" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C232" s="12" t="s">
-        <v>288</v>
+        <v>305</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>306</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>13</v>
@@ -5986,14 +5672,14 @@
       <c r="F232" s="2"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A233" s="2" t="s">
-        <v>30</v>
+      <c r="A233" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C233" s="12" t="s">
-        <v>295</v>
+        <v>307</v>
+      </c>
+      <c r="C233" s="9" t="s">
+        <v>306</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>13</v>
@@ -6002,14 +5688,14 @@
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234" s="2" t="s">
-        <v>30</v>
+      <c r="A234" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C234" s="12" t="s">
-        <v>295</v>
+        <v>308</v>
+      </c>
+      <c r="C234" s="9" t="s">
+        <v>309</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>13</v>
@@ -6018,14 +5704,14 @@
       <c r="F234" s="2"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235" s="2" t="s">
-        <v>30</v>
+      <c r="A235" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C235" s="12" t="s">
-        <v>295</v>
+        <v>310</v>
+      </c>
+      <c r="C235" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>13</v>
@@ -6034,14 +5720,14 @@
       <c r="F235" s="2"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="2" t="s">
-        <v>30</v>
+      <c r="A236" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C236" s="12" t="s">
-        <v>299</v>
+        <v>311</v>
+      </c>
+      <c r="C236" s="9" t="s">
+        <v>312</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>13</v>
@@ -6050,14 +5736,14 @@
       <c r="F236" s="2"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A237" s="2" t="s">
-        <v>30</v>
+      <c r="A237" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C237" s="12" t="s">
-        <v>301</v>
+        <v>313</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>309</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>13</v>
@@ -6066,14 +5752,14 @@
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A238" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B238" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C238" s="12" t="s">
-        <v>303</v>
+      <c r="A238" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>314</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>13</v>
@@ -6082,14 +5768,14 @@
       <c r="F238" s="2"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A239" s="2" t="s">
-        <v>30</v>
+      <c r="A239" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C239" s="12" t="s">
-        <v>305</v>
+        <v>317</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>314</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>13</v>
@@ -6098,14 +5784,14 @@
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A240" s="2" t="s">
-        <v>30</v>
+      <c r="A240" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C240" s="12" t="s">
-        <v>307</v>
+        <v>318</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>319</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>13</v>
@@ -6114,14 +5800,14 @@
       <c r="F240" s="2"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A241" s="2" t="s">
-        <v>30</v>
+      <c r="A241" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C241" s="12" t="s">
-        <v>309</v>
+        <v>320</v>
+      </c>
+      <c r="C241" s="9" t="s">
+        <v>321</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>13</v>
@@ -6130,14 +5816,14 @@
       <c r="F241" s="2"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A242" s="2" t="s">
-        <v>30</v>
+      <c r="A242" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C242" s="12" t="s">
-        <v>309</v>
+        <v>322</v>
+      </c>
+      <c r="C242" s="9" t="s">
+        <v>323</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>13</v>
@@ -6146,14 +5832,14 @@
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" s="2" t="s">
-        <v>30</v>
+      <c r="A243" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C243" s="12" t="s">
-        <v>309</v>
+        <v>324</v>
+      </c>
+      <c r="C243" s="9" t="s">
+        <v>325</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>13</v>
@@ -6162,14 +5848,14 @@
       <c r="F243" s="2"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A244" s="4" t="s">
-        <v>30</v>
+      <c r="A244" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C244" s="12" t="s">
-        <v>309</v>
+        <v>326</v>
+      </c>
+      <c r="C244" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>13</v>
@@ -6178,14 +5864,14 @@
       <c r="F244" s="2"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A245" s="4" t="s">
-        <v>30</v>
+      <c r="A245" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C245" s="12" t="s">
-        <v>309</v>
+        <v>328</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>329</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>13</v>
@@ -6194,14 +5880,14 @@
       <c r="F245" s="2"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A246" s="2" t="s">
-        <v>30</v>
+      <c r="A246" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C246" s="12" t="s">
-        <v>247</v>
+        <v>330</v>
+      </c>
+      <c r="C246" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>13</v>
@@ -6210,62 +5896,62 @@
       <c r="F246" s="2"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A247" s="2" t="s">
-        <v>28</v>
+      <c r="A247" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B247" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E247" s="2"/>
+      <c r="F247" s="2"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A248" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E248" s="2"/>
+      <c r="F248" s="2"/>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A249" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C249" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A250" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C250" s="9" t="s">
         <v>315</v>
-      </c>
-      <c r="C247" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E247" s="2"/>
-      <c r="F247" s="6"/>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A248" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C248" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E248" s="2"/>
-      <c r="F248" s="6"/>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A249" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C249" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E249" s="2"/>
-      <c r="F249" s="6"/>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A250" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C250" s="12" t="s">
-        <v>230</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>13</v>
@@ -6274,14 +5960,14 @@
       <c r="F250" s="2"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A251" s="2" t="s">
-        <v>28</v>
+      <c r="A251" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C251" s="12" t="s">
-        <v>323</v>
+        <v>336</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>337</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>13</v>
@@ -6290,14 +5976,14 @@
       <c r="F251" s="2"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A252" s="2" t="s">
-        <v>28</v>
+      <c r="A252" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C252" s="12" t="s">
-        <v>323</v>
+        <v>338</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>339</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>13</v>
@@ -6306,14 +5992,14 @@
       <c r="F252" s="2"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A253" s="2" t="s">
-        <v>28</v>
+      <c r="A253" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C253" s="12" t="s">
-        <v>326</v>
+        <v>340</v>
+      </c>
+      <c r="C253" s="9" t="s">
+        <v>341</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>13</v>
@@ -6322,14 +6008,14 @@
       <c r="F253" s="2"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A254" s="2" t="s">
-        <v>28</v>
+      <c r="A254" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C254" s="12" t="s">
-        <v>328</v>
+        <v>342</v>
+      </c>
+      <c r="C254" s="9" t="s">
+        <v>343</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>13</v>
@@ -6338,14 +6024,14 @@
       <c r="F254" s="2"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A255" s="2" t="s">
-        <v>28</v>
+      <c r="A255" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C255" s="12" t="s">
-        <v>328</v>
+        <v>344</v>
+      </c>
+      <c r="C255" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>13</v>
@@ -6354,14 +6040,14 @@
       <c r="F255" s="2"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A256" s="2" t="s">
-        <v>28</v>
+      <c r="A256" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C256" s="12" t="s">
-        <v>316</v>
+        <v>345</v>
+      </c>
+      <c r="C256" s="9" t="s">
+        <v>346</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>13</v>
@@ -6370,1197 +6056,378 @@
       <c r="F256" s="2"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A257" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C257" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A257" s="2"/>
+      <c r="B257" s="2"/>
+      <c r="C257" s="8"/>
+      <c r="D257" s="2"/>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A258" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C258" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A258" s="2"/>
+      <c r="B258" s="2"/>
+      <c r="C258" s="8"/>
+      <c r="D258" s="2"/>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A259" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C259" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A259" s="2"/>
+      <c r="B259" s="2"/>
+      <c r="C259" s="8"/>
+      <c r="D259" s="2"/>
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A260" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C260" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A260" s="2"/>
+      <c r="B260" s="2"/>
+      <c r="C260" s="8"/>
+      <c r="D260" s="2"/>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A261" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C261" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A261" s="2"/>
+      <c r="B261" s="2"/>
+      <c r="C261" s="8"/>
+      <c r="D261" s="2"/>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A262" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C262" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A262" s="2"/>
+      <c r="B262" s="2"/>
+      <c r="C262" s="8"/>
+      <c r="D262" s="2"/>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A263" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C263" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A263" s="2"/>
+      <c r="B263" s="2"/>
+      <c r="C263" s="8"/>
+      <c r="D263" s="2"/>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A264" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C264" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A264" s="2"/>
+      <c r="B264" s="2"/>
+      <c r="C264" s="8"/>
+      <c r="D264" s="2"/>
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A265" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C265" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A265" s="2"/>
+      <c r="B265" s="2"/>
+      <c r="C265" s="8"/>
+      <c r="D265" s="2"/>
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A266" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C266" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A266" s="2"/>
+      <c r="B266" s="2"/>
+      <c r="C266" s="8"/>
+      <c r="D266" s="2"/>
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A267" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C267" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A267" s="2"/>
+      <c r="B267" s="2"/>
+      <c r="C267" s="8"/>
+      <c r="D267" s="2"/>
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A268" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C268" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A268" s="2"/>
+      <c r="B268" s="2"/>
+      <c r="C268" s="8"/>
+      <c r="D268" s="2"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A269" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C269" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A269" s="2"/>
+      <c r="B269" s="2"/>
+      <c r="C269" s="8"/>
+      <c r="D269" s="2"/>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A270" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C270" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A270" s="2"/>
+      <c r="B270" s="2"/>
+      <c r="C270" s="8"/>
+      <c r="D270" s="2"/>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A271" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C271" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A271" s="2"/>
+      <c r="B271" s="2"/>
+      <c r="C271" s="8"/>
+      <c r="D271" s="2"/>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A272" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C272" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A272" s="2"/>
+      <c r="B272" s="2"/>
+      <c r="C272" s="8"/>
+      <c r="D272" s="2"/>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A273" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C273" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A273" s="2"/>
+      <c r="B273" s="2"/>
+      <c r="C273" s="8"/>
+      <c r="D273" s="2"/>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A274" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C274" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A274" s="2"/>
+      <c r="B274" s="2"/>
+      <c r="C274" s="8"/>
+      <c r="D274" s="2"/>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A275" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C275" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A275" s="2"/>
+      <c r="B275" s="2"/>
+      <c r="C275" s="8"/>
+      <c r="D275" s="2"/>
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A276" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C276" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A276" s="2"/>
+      <c r="B276" s="2"/>
+      <c r="C276" s="8"/>
+      <c r="D276" s="2"/>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A277" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C277" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A277" s="2"/>
+      <c r="B277" s="2"/>
+      <c r="C277" s="8"/>
+      <c r="D277" s="2"/>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A278" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C278" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A278" s="2"/>
+      <c r="B278" s="2"/>
+      <c r="C278" s="8"/>
+      <c r="D278" s="2"/>
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A279" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C279" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A279" s="2"/>
+      <c r="B279" s="2"/>
+      <c r="C279" s="8"/>
+      <c r="D279" s="2"/>
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A280" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C280" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A280" s="2"/>
+      <c r="B280" s="2"/>
+      <c r="C280" s="8"/>
+      <c r="D280" s="2"/>
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A281" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C281" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A281" s="2"/>
+      <c r="B281" s="2"/>
+      <c r="C281" s="8"/>
+      <c r="D281" s="2"/>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A282" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C282" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A282" s="2"/>
+      <c r="B282" s="2"/>
+      <c r="C282" s="8"/>
+      <c r="D282" s="2"/>
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A283" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C283" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A283" s="2"/>
+      <c r="B283" s="2"/>
+      <c r="C283" s="8"/>
+      <c r="D283" s="2"/>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A284" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C284" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A284" s="2"/>
+      <c r="B284" s="2"/>
+      <c r="C284" s="8"/>
+      <c r="D284" s="2"/>
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A285" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C285" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A285" s="2"/>
+      <c r="B285" s="2"/>
+      <c r="C285" s="8"/>
+      <c r="D285" s="2"/>
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A286" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C286" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A286" s="2"/>
+      <c r="B286" s="2"/>
+      <c r="C286" s="8"/>
+      <c r="D286" s="2"/>
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A287" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C287" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A287" s="2"/>
+      <c r="B287" s="2"/>
+      <c r="C287" s="8"/>
+      <c r="D287" s="2"/>
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A288" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C288" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="D288" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A288" s="2"/>
+      <c r="B288" s="2"/>
+      <c r="C288" s="8"/>
+      <c r="D288" s="2"/>
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A289" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C289" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A289" s="2"/>
+      <c r="B289" s="2"/>
+      <c r="C289" s="8"/>
+      <c r="D289" s="2"/>
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A290" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C290" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A290" s="2"/>
+      <c r="B290" s="2"/>
+      <c r="C290" s="8"/>
+      <c r="D290" s="2"/>
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A291" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C291" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A291" s="2"/>
+      <c r="B291" s="2"/>
+      <c r="C291" s="8"/>
+      <c r="D291" s="2"/>
       <c r="E291" s="2"/>
       <c r="F291" s="2"/>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A292" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="C292" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A292" s="2"/>
+      <c r="B292" s="2"/>
+      <c r="C292" s="8"/>
+      <c r="D292" s="2"/>
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A293" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C293" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A293" s="2"/>
+      <c r="B293" s="6"/>
+      <c r="C293" s="8"/>
+      <c r="D293" s="2"/>
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A294" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C294" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A294" s="2"/>
+      <c r="B294" s="6"/>
+      <c r="C294" s="8"/>
+      <c r="D294" s="2"/>
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A295" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C295" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A295" s="2"/>
+      <c r="B295" s="2"/>
+      <c r="C295" s="8"/>
+      <c r="D295" s="2"/>
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A296" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C296" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A296" s="2"/>
+      <c r="B296" s="2"/>
+      <c r="C296" s="8"/>
+      <c r="D296" s="2"/>
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A297" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C297" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="D297" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A297" s="2"/>
+      <c r="B297" s="6"/>
+      <c r="C297" s="8"/>
+      <c r="D297" s="2"/>
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A298" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C298" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A298" s="2"/>
+      <c r="B298" s="2"/>
+      <c r="C298" s="8"/>
+      <c r="D298" s="2"/>
       <c r="E298" s="2"/>
       <c r="F298" s="2"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A299" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C299" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E299" s="2"/>
-      <c r="F299" s="2"/>
+      <c r="A299" s="2"/>
+      <c r="B299" s="2"/>
+      <c r="C299" s="8"/>
+      <c r="D299" s="2"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A300" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C300" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E300" s="2"/>
-      <c r="F300" s="2"/>
+      <c r="A300" s="2"/>
+      <c r="B300" s="6"/>
+      <c r="C300" s="8"/>
+      <c r="D300" s="2"/>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A301" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C301" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E301" s="2"/>
-      <c r="F301" s="2"/>
+      <c r="A301" s="2"/>
+      <c r="B301" s="6"/>
+      <c r="C301" s="8"/>
+      <c r="D301" s="2"/>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A302" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C302" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E302" s="2"/>
-      <c r="F302" s="2"/>
+      <c r="A302" s="2"/>
+      <c r="B302" s="2"/>
+      <c r="C302" s="8"/>
+      <c r="D302" s="2"/>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A303" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C303" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E303" s="2"/>
-      <c r="F303" s="2"/>
+      <c r="A303" s="2"/>
+      <c r="B303" s="2"/>
+      <c r="C303" s="8"/>
+      <c r="D303" s="2"/>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A304" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C304" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E304" s="2"/>
-      <c r="F304" s="2"/>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A305" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C305" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E305" s="2"/>
-      <c r="F305" s="2"/>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A306" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C306" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E306" s="2"/>
-      <c r="F306" s="2"/>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A307" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C307" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="D307" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E307" s="2"/>
-      <c r="F307" s="2"/>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A308" s="2"/>
-      <c r="B308" s="2"/>
-      <c r="C308" s="9"/>
-      <c r="D308" s="2"/>
-      <c r="E308" s="2"/>
-      <c r="F308" s="2"/>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A309" s="2"/>
-      <c r="B309" s="2"/>
-      <c r="C309" s="9"/>
-      <c r="D309" s="2"/>
-      <c r="E309" s="2"/>
-      <c r="F309" s="2"/>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A310" s="2"/>
-      <c r="B310" s="2"/>
-      <c r="C310" s="9"/>
-      <c r="D310" s="2"/>
-      <c r="E310" s="2"/>
-      <c r="F310" s="2"/>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A311" s="2"/>
-      <c r="B311" s="2"/>
-      <c r="C311" s="9"/>
-      <c r="D311" s="2"/>
-      <c r="E311" s="2"/>
-      <c r="F311" s="2"/>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A312" s="2"/>
-      <c r="B312" s="2"/>
-      <c r="C312" s="9"/>
-      <c r="D312" s="2"/>
-      <c r="E312" s="2"/>
-      <c r="F312" s="2"/>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A313" s="2"/>
-      <c r="B313" s="2"/>
-      <c r="C313" s="9"/>
-      <c r="D313" s="2"/>
-      <c r="E313" s="2"/>
-      <c r="F313" s="2"/>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A314" s="2"/>
-      <c r="B314" s="2"/>
-      <c r="C314" s="9"/>
-      <c r="D314" s="2"/>
-      <c r="E314" s="2"/>
-      <c r="F314" s="2"/>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A315" s="2"/>
-      <c r="B315" s="2"/>
-      <c r="C315" s="9"/>
-      <c r="D315" s="2"/>
-      <c r="E315" s="2"/>
-      <c r="F315" s="2"/>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A316" s="2"/>
-      <c r="B316" s="2"/>
-      <c r="C316" s="9"/>
-      <c r="D316" s="2"/>
-      <c r="E316" s="2"/>
-      <c r="F316" s="2"/>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A317" s="2"/>
-      <c r="B317" s="2"/>
-      <c r="C317" s="9"/>
-      <c r="D317" s="2"/>
-      <c r="E317" s="2"/>
-      <c r="F317" s="2"/>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A318" s="2"/>
-      <c r="B318" s="2"/>
-      <c r="C318" s="9"/>
-      <c r="D318" s="2"/>
-      <c r="E318" s="2"/>
-      <c r="F318" s="2"/>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A319" s="2"/>
-      <c r="B319" s="2"/>
-      <c r="C319" s="9"/>
-      <c r="D319" s="2"/>
-      <c r="E319" s="2"/>
-      <c r="F319" s="2"/>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A320" s="2"/>
-      <c r="B320" s="2"/>
-      <c r="C320" s="9"/>
-      <c r="D320" s="2"/>
-      <c r="E320" s="2"/>
-      <c r="F320" s="2"/>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A321" s="2"/>
-      <c r="B321" s="2"/>
-      <c r="C321" s="9"/>
-      <c r="D321" s="2"/>
-      <c r="E321" s="2"/>
-      <c r="F321" s="2"/>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A322" s="2"/>
-      <c r="B322" s="2"/>
-      <c r="C322" s="9"/>
-      <c r="D322" s="2"/>
-      <c r="E322" s="2"/>
-      <c r="F322" s="2"/>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A323" s="2"/>
-      <c r="B323" s="2"/>
-      <c r="C323" s="9"/>
-      <c r="D323" s="2"/>
-      <c r="E323" s="2"/>
-      <c r="F323" s="2"/>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A324" s="2"/>
-      <c r="B324" s="2"/>
-      <c r="C324" s="9"/>
-      <c r="D324" s="2"/>
-      <c r="E324" s="2"/>
-      <c r="F324" s="2"/>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A325" s="2"/>
-      <c r="B325" s="2"/>
-      <c r="C325" s="9"/>
-      <c r="D325" s="2"/>
-      <c r="E325" s="2"/>
-      <c r="F325" s="2"/>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A326" s="2"/>
-      <c r="B326" s="2"/>
-      <c r="C326" s="9"/>
-      <c r="D326" s="2"/>
-      <c r="E326" s="2"/>
-      <c r="F326" s="2"/>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A327" s="2"/>
-      <c r="B327" s="2"/>
-      <c r="C327" s="9"/>
-      <c r="D327" s="2"/>
-      <c r="E327" s="2"/>
-      <c r="F327" s="2"/>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A328" s="2"/>
-      <c r="B328" s="2"/>
-      <c r="C328" s="9"/>
-      <c r="D328" s="2"/>
-      <c r="E328" s="2"/>
-      <c r="F328" s="2"/>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A329" s="2"/>
-      <c r="B329" s="2"/>
-      <c r="C329" s="9"/>
-      <c r="D329" s="2"/>
-      <c r="E329" s="2"/>
-      <c r="F329" s="2"/>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A330" s="2"/>
-      <c r="B330" s="2"/>
-      <c r="C330" s="9"/>
-      <c r="D330" s="2"/>
-      <c r="E330" s="2"/>
-      <c r="F330" s="2"/>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A331" s="2"/>
-      <c r="B331" s="2"/>
-      <c r="C331" s="9"/>
-      <c r="D331" s="2"/>
-      <c r="E331" s="2"/>
-      <c r="F331" s="2"/>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A332" s="2"/>
-      <c r="B332" s="2"/>
-      <c r="C332" s="9"/>
-      <c r="D332" s="2"/>
-      <c r="E332" s="2"/>
-      <c r="F332" s="2"/>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A333" s="2"/>
-      <c r="B333" s="2"/>
-      <c r="C333" s="9"/>
-      <c r="D333" s="2"/>
-      <c r="E333" s="2"/>
-      <c r="F333" s="2"/>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A334" s="2"/>
-      <c r="B334" s="2"/>
-      <c r="C334" s="9"/>
-      <c r="D334" s="2"/>
-      <c r="E334" s="2"/>
-      <c r="F334" s="2"/>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A335" s="2"/>
-      <c r="B335" s="2"/>
-      <c r="C335" s="9"/>
-      <c r="D335" s="2"/>
-      <c r="E335" s="2"/>
-      <c r="F335" s="2"/>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A336" s="2"/>
-      <c r="B336" s="2"/>
-      <c r="C336" s="9"/>
-      <c r="D336" s="2"/>
-      <c r="E336" s="2"/>
-      <c r="F336" s="2"/>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A337" s="2"/>
-      <c r="B337" s="2"/>
-      <c r="C337" s="9"/>
-      <c r="D337" s="2"/>
-      <c r="E337" s="2"/>
-      <c r="F337" s="2"/>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A338" s="2"/>
-      <c r="B338" s="2"/>
-      <c r="C338" s="9"/>
-      <c r="D338" s="2"/>
-      <c r="E338" s="2"/>
-      <c r="F338" s="2"/>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A339" s="2"/>
-      <c r="B339" s="2"/>
-      <c r="C339" s="9"/>
-      <c r="D339" s="2"/>
-      <c r="E339" s="2"/>
-      <c r="F339" s="2"/>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A340" s="2"/>
-      <c r="B340" s="2"/>
-      <c r="C340" s="9"/>
-      <c r="D340" s="2"/>
-      <c r="E340" s="2"/>
-      <c r="F340" s="2"/>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A341" s="2"/>
-      <c r="B341" s="2"/>
-      <c r="C341" s="9"/>
-      <c r="D341" s="2"/>
-      <c r="E341" s="2"/>
-      <c r="F341" s="2"/>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A342" s="2"/>
-      <c r="B342" s="2"/>
-      <c r="C342" s="9"/>
-      <c r="D342" s="2"/>
-      <c r="E342" s="2"/>
-      <c r="F342" s="2"/>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A343" s="2"/>
-      <c r="B343" s="2"/>
-      <c r="C343" s="9"/>
-      <c r="D343" s="2"/>
-      <c r="E343" s="2"/>
-      <c r="F343" s="2"/>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A344" s="2"/>
-      <c r="B344" s="7"/>
-      <c r="C344" s="9"/>
-      <c r="D344" s="2"/>
-      <c r="E344" s="2"/>
-      <c r="F344" s="2"/>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A345" s="2"/>
-      <c r="B345" s="7"/>
-      <c r="C345" s="9"/>
-      <c r="D345" s="2"/>
-      <c r="E345" s="2"/>
-      <c r="F345" s="2"/>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A346" s="2"/>
-      <c r="B346" s="2"/>
-      <c r="C346" s="9"/>
-      <c r="D346" s="2"/>
-      <c r="E346" s="2"/>
-      <c r="F346" s="2"/>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A347" s="2"/>
-      <c r="B347" s="2"/>
-      <c r="C347" s="9"/>
-      <c r="D347" s="2"/>
-      <c r="E347" s="2"/>
-      <c r="F347" s="2"/>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A348" s="2"/>
-      <c r="B348" s="7"/>
-      <c r="C348" s="9"/>
-      <c r="D348" s="2"/>
-      <c r="E348" s="2"/>
-      <c r="F348" s="2"/>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A349" s="2"/>
-      <c r="B349" s="2"/>
-      <c r="C349" s="9"/>
-      <c r="D349" s="2"/>
-      <c r="E349" s="2"/>
-      <c r="F349" s="2"/>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A350" s="2"/>
-      <c r="B350" s="2"/>
-      <c r="C350" s="9"/>
-      <c r="D350" s="2"/>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A351" s="2"/>
-      <c r="B351" s="7"/>
-      <c r="C351" s="9"/>
-      <c r="D351" s="2"/>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A352" s="2"/>
-      <c r="B352" s="7"/>
-      <c r="C352" s="9"/>
-      <c r="D352" s="2"/>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A353" s="2"/>
-      <c r="B353" s="2"/>
-      <c r="C353" s="9"/>
-      <c r="D353" s="2"/>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A354" s="2"/>
-      <c r="B354" s="2"/>
-      <c r="C354" s="9"/>
-      <c r="D354" s="2"/>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A355" s="2"/>
-      <c r="B355" s="2"/>
-      <c r="C355" s="9"/>
-      <c r="D355" s="2"/>
+      <c r="A304" s="2"/>
+      <c r="B304" s="2"/>
+      <c r="C304" s="8"/>
+      <c r="D304" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F164:F167"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7570,10 +6437,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7598,7 +6465,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>417</v>
+        <v>349</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -7612,7 +6479,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>415</v>
+        <v>347</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
@@ -7624,7 +6491,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -7632,11 +6499,13 @@
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="3">
+        <v>0.45833333333333331</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
@@ -7650,209 +6519,159 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.45833333333333331</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>351</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>54</v>
+        <v>350</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/North Spine Canteen Details.xlsx
+++ b/North Spine Canteen Details.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="211">
   <si>
     <t>s</t>
   </si>
@@ -110,18 +110,9 @@
     <t>Chicken Rice</t>
   </si>
   <si>
-    <t>KFC</t>
-  </si>
-  <si>
     <t>Kung Bao Chicken Rice</t>
   </si>
   <si>
-    <t>Subway</t>
-  </si>
-  <si>
-    <t>Handmade Noodles</t>
-  </si>
-  <si>
     <t>Black Pepper Chicken Rice</t>
   </si>
   <si>
@@ -353,42 +344,6 @@
     <t>Tea O</t>
   </si>
   <si>
-    <t>Cheng Teng Hot</t>
-  </si>
-  <si>
-    <t>Desserts</t>
-  </si>
-  <si>
-    <t>Pulut Terigu</t>
-  </si>
-  <si>
-    <t>Pulut Hitam</t>
-  </si>
-  <si>
-    <t>Beancurd Skin Barley</t>
-  </si>
-  <si>
-    <t>Green Bean Soup</t>
-  </si>
-  <si>
-    <t>Red Bean Soup</t>
-  </si>
-  <si>
-    <t>Iced Lemon Tea</t>
-  </si>
-  <si>
-    <t>Water Chestnut</t>
-  </si>
-  <si>
-    <t>Bandung</t>
-  </si>
-  <si>
-    <t>Iced Coco</t>
-  </si>
-  <si>
-    <t>Beetroot</t>
-  </si>
-  <si>
     <t>Pig Liver Soup</t>
   </si>
   <si>
@@ -491,18 +446,6 @@
     <t>Smoked Duck Bowl</t>
   </si>
   <si>
-    <t>Vegetable A (100g)</t>
-  </si>
-  <si>
-    <t>Vegetable B (100g)</t>
-  </si>
-  <si>
-    <t>Meat (100g)</t>
-  </si>
-  <si>
-    <t>Seafood (100g)</t>
-  </si>
-  <si>
     <t>Chargrill Chicken Set</t>
   </si>
   <si>
@@ -560,288 +503,36 @@
     <t xml:space="preserve">Rice </t>
   </si>
   <si>
-    <t>Everyday Value Fresh Meals - BBQ Chicken</t>
-  </si>
-  <si>
-    <t>Everyday Value Fresh Meals - Chicken BLT</t>
-  </si>
-  <si>
-    <t>Everyday Value Fresh Meals - Chatpata Chickpea</t>
-  </si>
-  <si>
-    <t>Everyday Value Fresh Meals - Veggie Delite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cafe Fun World </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prawn paste chicken wing rice- 1 wing </t>
-  </si>
-  <si>
-    <t>$3.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prawn paste chicken wing rice - 2 wing </t>
-  </si>
-  <si>
     <t>$5.00</t>
   </si>
   <si>
-    <t xml:space="preserve">Signature Chicken Wing Nasi Lemak-1 wing </t>
-  </si>
-  <si>
-    <t>Signature Chicken Wing Nasi Lemak-2 wings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Economic Bee Hoon </t>
-  </si>
-  <si>
-    <t>$.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soy Sauce Chicken Rice Set </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBQ Stingray Rice </t>
-  </si>
-  <si>
-    <t>$8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBQ Prawn Rice </t>
-  </si>
-  <si>
     <t>$5.50</t>
   </si>
   <si>
-    <t>Prawn Noodle Dry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mee Siam </t>
-  </si>
-  <si>
-    <t>$3.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mee Rebus </t>
-  </si>
-  <si>
-    <t>Chicken Chop Pasta</t>
-  </si>
-  <si>
-    <t>$5.9</t>
-  </si>
-  <si>
-    <t>Chicken Cutlet Pasta</t>
-  </si>
-  <si>
     <t>$2.50</t>
   </si>
   <si>
-    <t>1pc Fish+1pc chicken+Fries+Drink</t>
-  </si>
-  <si>
-    <t>2pc Fish+2pc chicken+Fries+Drink</t>
-  </si>
-  <si>
     <t>$5.90</t>
   </si>
   <si>
-    <t>3pc chicken+Fries+Drink</t>
-  </si>
-  <si>
-    <t>2pc Fish+Fries+Drink</t>
-  </si>
-  <si>
     <t>$6.40</t>
   </si>
   <si>
-    <t>1pc Fish+2pc Shrimp+Fries+Drink</t>
-  </si>
-  <si>
-    <t>2pc Dory+Fries+Drink</t>
-  </si>
-  <si>
-    <t>2pc Chicken+Fries+Drink</t>
-  </si>
-  <si>
     <t>$4.30</t>
   </si>
   <si>
-    <t>1pc Fish+Fries+Drink</t>
-  </si>
-  <si>
-    <t>$4.90</t>
-  </si>
-  <si>
-    <t>$6.70</t>
-  </si>
-  <si>
     <t>Grilled Salmon with Teriyaki sauce</t>
   </si>
   <si>
     <t>$8.20</t>
   </si>
   <si>
-    <t>1pc Fish+Rice+Drink+Chilli Crab sauce</t>
-  </si>
-  <si>
-    <t>1pc Chicken+Rice+Drink+Spicy Teriyaki</t>
-  </si>
-  <si>
-    <t>1pc Chicken+Rice+Drink+Salted Egg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1pc Chicken </t>
-  </si>
-  <si>
-    <t>$1.70</t>
-  </si>
-  <si>
-    <t>1pc Fish</t>
-  </si>
-  <si>
-    <t>2pc Shrimp</t>
-  </si>
-  <si>
-    <t>$2.10</t>
-  </si>
-  <si>
-    <t>1pc Dory</t>
-  </si>
-  <si>
-    <t>1pc Salmon</t>
-  </si>
-  <si>
-    <t>$4.10</t>
-  </si>
-  <si>
-    <t>$1.60</t>
-  </si>
-  <si>
-    <t>Large fries</t>
-  </si>
-  <si>
-    <t>$2.20</t>
-  </si>
-  <si>
-    <t>Extra fries</t>
-  </si>
-  <si>
-    <t>$3.00</t>
-  </si>
-  <si>
-    <t>Chips</t>
-  </si>
-  <si>
-    <t>Coleslaw</t>
-  </si>
-  <si>
-    <t>Corn</t>
-  </si>
-  <si>
-    <t>$3.40</t>
-  </si>
-  <si>
     <t>Hershey's chocolate creme pie</t>
   </si>
   <si>
     <t>Haagen Dazs chocolate ice cream</t>
   </si>
   <si>
-    <t>Zinger meal</t>
-  </si>
-  <si>
-    <t>$6.15</t>
-  </si>
-  <si>
-    <t>Zinger Stacker meal</t>
-  </si>
-  <si>
-    <t>$7.75</t>
-  </si>
-  <si>
-    <t>BBQ Pockett meal</t>
-  </si>
-  <si>
-    <t>Zinger Box</t>
-  </si>
-  <si>
-    <t>Zinger Stackett Box</t>
-  </si>
-  <si>
-    <t>$9.15</t>
-  </si>
-  <si>
-    <t>BBQ Pockett box</t>
-  </si>
-  <si>
-    <t>Shrooms Box</t>
-  </si>
-  <si>
-    <t>$6.95</t>
-  </si>
-  <si>
-    <t>Tenders Box</t>
-  </si>
-  <si>
-    <t>2pcs meal</t>
-  </si>
-  <si>
-    <t>3 pcs meal</t>
-  </si>
-  <si>
-    <t>$8.85</t>
-  </si>
-  <si>
-    <t>All-chicken bucket-9 pcs</t>
-  </si>
-  <si>
-    <t>$23.15</t>
-  </si>
-  <si>
-    <t>All-chicken bucket-15  pcs</t>
-  </si>
-  <si>
-    <t>$36.15</t>
-  </si>
-  <si>
-    <t>Waffle O.R Double down meal</t>
-  </si>
-  <si>
-    <t>$8.95</t>
-  </si>
-  <si>
-    <t>Waffle O.R Double down box</t>
-  </si>
-  <si>
-    <t>$10.95</t>
-  </si>
-  <si>
-    <t>Famous potato bowl</t>
-  </si>
-  <si>
-    <t>$5</t>
-  </si>
-  <si>
-    <t>Curry Rice bowl meal</t>
-  </si>
-  <si>
-    <t>Original recipe rice bowl meal</t>
-  </si>
-  <si>
-    <t>Shrooms fillet rice bowl meal</t>
-  </si>
-  <si>
-    <t>Colonel burger meal</t>
-  </si>
-  <si>
-    <t>Mango peach froyo</t>
-  </si>
-  <si>
-    <t>$1.50</t>
-  </si>
-  <si>
     <t>$2.80</t>
   </si>
   <si>
@@ -920,163 +611,49 @@
     <t>Cheeseburger</t>
   </si>
   <si>
-    <t>Hamburger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potato </t>
-  </si>
-  <si>
-    <t>$2.3</t>
-  </si>
-  <si>
-    <t>White Choc Strawberry Cream Pie</t>
-  </si>
-  <si>
-    <t>$1.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apple Pie </t>
-  </si>
-  <si>
-    <t>McWings</t>
-  </si>
-  <si>
-    <t>$4.95</t>
-  </si>
-  <si>
-    <t>Chicken McNuggets (6pcs)</t>
-  </si>
-  <si>
-    <t>Small French Fries</t>
-  </si>
-  <si>
-    <t>$1.95</t>
-  </si>
-  <si>
-    <t>Medium French Fries</t>
-  </si>
-  <si>
-    <t>Apple Slices</t>
-  </si>
-  <si>
-    <t>$1.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corn Cup </t>
-  </si>
-  <si>
-    <t>$8.40</t>
-  </si>
-  <si>
-    <t>$6.65</t>
-  </si>
-  <si>
-    <t>Value Meal(Fries)-Grilled chicken Sandwich + L Fries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value Meal(Fries)-Crispy Fish Sandwich + L Fries </t>
-  </si>
-  <si>
-    <t>Value Meal(Fries)-Classic Angus Cheese + L Fries</t>
-  </si>
-  <si>
-    <t>$11.50</t>
-  </si>
-  <si>
-    <t>Value Meal(Fries)-McSpicy + L Fries</t>
-  </si>
-  <si>
-    <t>$7.70</t>
-  </si>
-  <si>
-    <t>Value Meal(Fries)-Buttermilk Cripsy Chicken + L Fries</t>
-  </si>
-  <si>
-    <t>$9.50</t>
-  </si>
-  <si>
-    <t>Value Meal(Fries)-The Orignal Angus + L Fries</t>
-  </si>
-  <si>
-    <t>$8.50</t>
-  </si>
-  <si>
-    <t>Value Meal(Fries)-Big Mac + L Fries</t>
-  </si>
-  <si>
-    <t>$7.85</t>
-  </si>
-  <si>
-    <t>Value Meal(Fries)-Double MacSpicy + L Fries</t>
-  </si>
-  <si>
-    <t>$9.55</t>
-  </si>
-  <si>
-    <t>Value Meal(Fries)-McWings + L fries</t>
-  </si>
-  <si>
-    <t>Value Meal(Fries)-McNuggets( 6pcs) + L Fries</t>
-  </si>
-  <si>
-    <t>Value Meal(Fries)-McNuggets(9pcs) + L Fries</t>
-  </si>
-  <si>
-    <t>Value Meal(Fries)-McChicken + L Fries</t>
-  </si>
-  <si>
-    <t>$5.95</t>
-  </si>
-  <si>
-    <t>Value Meal(Fries)-Double Cheeseburger + L Fries</t>
-  </si>
-  <si>
-    <t>Value Meal(Fries)-BBQ Beef Burger with Egg+ L Fries</t>
-  </si>
-  <si>
-    <t>$6.30</t>
-  </si>
-  <si>
-    <t>Value Meal(Fries)-Fillet-O-FIsh + L Fries</t>
-  </si>
-  <si>
-    <t>$6.35</t>
-  </si>
-  <si>
-    <t>Value Meal(Fries)-Double Fillet-O-FIsh + L Fries</t>
-  </si>
-  <si>
-    <t>$8.10</t>
-  </si>
-  <si>
-    <t>Value Meal(Fries)-Grilled Chicken McWrap + L Fries</t>
-  </si>
-  <si>
-    <t>$7.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheeseburger Happy Meal </t>
-  </si>
-  <si>
-    <t>Chicken McNuggetss(4pcs) Happy Meal</t>
-  </si>
-  <si>
-    <t>$5.20</t>
-  </si>
-  <si>
     <t>Long John Silver</t>
   </si>
   <si>
-    <t>Cafe Fun World</t>
-  </si>
-  <si>
     <t>McDonalds</t>
   </si>
   <si>
     <t>Pasta</t>
   </si>
   <si>
-    <t>Mala</t>
+    <t>Noodles</t>
+  </si>
+  <si>
+    <t>1pc Fish + 1pc Chicken + Fries + Drink</t>
+  </si>
+  <si>
+    <t>2pc Fish + 2pc Chicken + Fries + Drink</t>
+  </si>
+  <si>
+    <t>3pc Chicken + Fries + Drink</t>
+  </si>
+  <si>
+    <t>2pc Fish + Fries + Drink</t>
+  </si>
+  <si>
+    <t>1pc Fish + 2pc Shrimp + Fries + Drink</t>
+  </si>
+  <si>
+    <t>2pc Dory + Fries + Drink</t>
+  </si>
+  <si>
+    <t>2pc Chicken + Fries + Drink</t>
+  </si>
+  <si>
+    <t>1pc Fish + Fries + Drink</t>
+  </si>
+  <si>
+    <t>1pc Fish + Rice + Drink + Chilli Crab sauce</t>
+  </si>
+  <si>
+    <t>1pc Chicken + Rice + Drink + Spicy Teriyaki</t>
+  </si>
+  <si>
+    <t>1pc Chicken + Rice + Drink + Salted Egg</t>
   </si>
 </sst>
 </file>
@@ -1142,14 +719,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1393,16 +969,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="3" max="4" width="14.42578125" style="16"/>
+    <col min="3" max="4" width="14.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1412,10 +988,10 @@
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1426,10 +1002,10 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>0.85416666666666663</v>
       </c>
     </row>
@@ -1440,10 +1016,10 @@
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>0.375</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -1454,10 +1030,10 @@
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>0.85416666666666663</v>
       </c>
     </row>
@@ -1468,10 +1044,10 @@
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>0.375</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>0.625</v>
       </c>
     </row>
@@ -1482,10 +1058,10 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>0.875</v>
       </c>
     </row>
@@ -1496,444 +1072,358 @@
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>0.375</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>199</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>0.85416666666666663</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>199</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>0.375</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>0.625</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>0.875</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>0.375</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>0.875</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>0.375</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>0.29166666666666669</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>0.85416666666666663</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>0.375</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>0.625</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>0.85416666666666663</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>0.375</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <v>0.625</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="14">
         <v>0.3125</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>0.85416666666666663</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>0.375</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <v>0.625</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <v>0.375</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="12">
         <v>0.625</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>351</v>
+        <v>198</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D24" s="12">
-        <v>0.875</v>
+      <c r="D24" s="13">
+        <v>0.85416666666666663</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>351</v>
+      <c r="A25" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>0.375</v>
       </c>
       <c r="D25" s="12">
-        <v>0.70833333333333337</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>350</v>
+        <v>197</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="12">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="D26" s="14">
-        <v>0.85416666666666663</v>
-      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>350</v>
+      <c r="A27" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="12">
-        <v>0.375</v>
-      </c>
-      <c r="D27" s="13">
-        <v>0.625</v>
-      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>349</v>
+      <c r="A28" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="13">
+        <v>0.3125</v>
+      </c>
+      <c r="D29" s="13">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="C30" s="13">
+        <v>0.3125</v>
+      </c>
+      <c r="D30" s="13">
+        <v>0.91666666666666663</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>31</v>
+      <c r="A31" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+        <v>60</v>
+      </c>
+      <c r="C31" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D31" s="13">
+        <v>0.91666666666666663</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="14">
-        <v>0.3125</v>
-      </c>
-      <c r="D34" s="14">
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="14">
-        <v>0.3125</v>
-      </c>
-      <c r="D35" s="14">
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="14">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D36" s="14">
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="14">
-        <v>0.3125</v>
-      </c>
-      <c r="D37" s="14">
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="14">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D38" s="14">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="14">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D39" s="14">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1945,17 +1435,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F304"/>
+  <dimension ref="A1:F237"/>
   <sheetViews>
-    <sheetView topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="A214" sqref="A214:XFD231"/>
+    <sheetView topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="A149" sqref="A149:XFD168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="8" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1966,7 +1456,7 @@
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1982,7 +1472,7 @@
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>4.8</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1998,7 +1488,7 @@
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>3.8</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2014,7 +1504,7 @@
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>3.8</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2030,7 +1520,7 @@
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>4.8</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2046,7 +1536,7 @@
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>3.8</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2062,7 +1552,7 @@
       <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>3.8</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2078,7 +1568,7 @@
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>3.8</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2094,7 +1584,7 @@
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>3.8</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -2110,7 +1600,7 @@
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>3.8</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2126,7 +1616,7 @@
       <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>4.5</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -2140,9 +1630,9 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="9">
+        <v>29</v>
+      </c>
+      <c r="C12" s="8">
         <v>4.2</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -2156,9 +1646,9 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="9">
+        <v>30</v>
+      </c>
+      <c r="C13" s="8">
         <v>4.2</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -2172,9 +1662,9 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="9">
+        <v>31</v>
+      </c>
+      <c r="C14" s="8">
         <v>4.2</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2188,9 +1678,9 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="9">
+        <v>34</v>
+      </c>
+      <c r="C15" s="8">
         <v>4.2</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2204,9 +1694,9 @@
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="9">
+        <v>35</v>
+      </c>
+      <c r="C16" s="8">
         <v>4.2</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -2220,9 +1710,9 @@
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="9">
+        <v>39</v>
+      </c>
+      <c r="C17" s="8">
         <v>4.8</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -2236,9 +1726,9 @@
         <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="9">
+        <v>41</v>
+      </c>
+      <c r="C18" s="8">
         <v>3.3</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2252,9 +1742,9 @@
         <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="9">
+        <v>43</v>
+      </c>
+      <c r="C19" s="8">
         <v>3.3</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -2268,9 +1758,9 @@
         <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="9">
+        <v>46</v>
+      </c>
+      <c r="C20" s="8">
         <v>3.3</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -2284,9 +1774,9 @@
         <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="9">
+        <v>47</v>
+      </c>
+      <c r="C21" s="8">
         <v>3.3</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -2300,9 +1790,9 @@
         <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="9">
+        <v>49</v>
+      </c>
+      <c r="C22" s="8">
         <v>3.3</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2316,9 +1806,9 @@
         <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="9">
+        <v>50</v>
+      </c>
+      <c r="C23" s="8">
         <v>3.5</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -2332,9 +1822,9 @@
         <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="9">
+        <v>51</v>
+      </c>
+      <c r="C24" s="8">
         <v>3.5</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -2348,9 +1838,9 @@
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="9">
+        <v>52</v>
+      </c>
+      <c r="C25" s="8">
         <v>3.5</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2364,9 +1854,9 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="9">
+        <v>53</v>
+      </c>
+      <c r="C26" s="8">
         <v>3.5</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -2380,9 +1870,9 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="9">
+        <v>54</v>
+      </c>
+      <c r="C27" s="8">
         <v>3.5</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -2396,9 +1886,9 @@
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="9">
+        <v>55</v>
+      </c>
+      <c r="C28" s="8">
         <v>3</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -2412,9 +1902,9 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="9">
+        <v>56</v>
+      </c>
+      <c r="C29" s="8">
         <v>4.5</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -2428,9 +1918,9 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="9">
+        <v>57</v>
+      </c>
+      <c r="C30" s="8">
         <v>3</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2444,9 +1934,9 @@
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="9">
+        <v>58</v>
+      </c>
+      <c r="C31" s="8">
         <v>3</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -2460,9 +1950,9 @@
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="9">
+        <v>59</v>
+      </c>
+      <c r="C32" s="8">
         <v>3</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -2476,9 +1966,9 @@
         <v>28</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="9">
+        <v>61</v>
+      </c>
+      <c r="C33" s="8">
         <v>3</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -2492,9 +1982,9 @@
         <v>28</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="9">
+        <v>62</v>
+      </c>
+      <c r="C34" s="8">
         <v>0.6</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -2508,9 +1998,9 @@
         <v>28</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="9">
+        <v>63</v>
+      </c>
+      <c r="C35" s="8">
         <v>0.6</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -2521,12 +2011,12 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>32</v>
+        <v>199</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="9">
+        <v>64</v>
+      </c>
+      <c r="C36" s="8">
         <v>3</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -2536,13 +2026,13 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>32</v>
+      <c r="A37" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="9">
+        <v>65</v>
+      </c>
+      <c r="C37" s="8">
         <v>3</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2552,13 +2042,13 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>32</v>
+      <c r="A38" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="9">
+        <v>66</v>
+      </c>
+      <c r="C38" s="8">
         <v>3</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -2568,13 +2058,13 @@
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>32</v>
+      <c r="A39" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="9">
+        <v>67</v>
+      </c>
+      <c r="C39" s="8">
         <v>3</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -2584,13 +2074,13 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>32</v>
+      <c r="A40" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="9">
+        <v>68</v>
+      </c>
+      <c r="C40" s="8">
         <v>3</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -2600,13 +2090,13 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>32</v>
+      <c r="A41" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="9">
+        <v>69</v>
+      </c>
+      <c r="C41" s="8">
         <v>3</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -2616,13 +2106,13 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>32</v>
+      <c r="A42" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="9">
+        <v>70</v>
+      </c>
+      <c r="C42" s="8">
         <v>3</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -2632,13 +2122,13 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>32</v>
+      <c r="A43" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="9">
+        <v>71</v>
+      </c>
+      <c r="C43" s="8">
         <v>3.5</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -2648,13 +2138,13 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>32</v>
+      <c r="A44" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="9">
+        <v>72</v>
+      </c>
+      <c r="C44" s="8">
         <v>3.5</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -2664,13 +2154,13 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>32</v>
+      <c r="A45" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45" s="9">
+        <v>73</v>
+      </c>
+      <c r="C45" s="8">
         <v>3.8</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -2680,13 +2170,13 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>32</v>
+      <c r="A46" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="9">
+        <v>74</v>
+      </c>
+      <c r="C46" s="8">
         <v>3.5</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -2696,13 +2186,13 @@
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>32</v>
+      <c r="A47" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="9">
+        <v>75</v>
+      </c>
+      <c r="C47" s="8">
         <v>3.5</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -2713,12 +2203,12 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" s="9">
+        <v>76</v>
+      </c>
+      <c r="C48" s="8">
         <v>2.4</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -2729,12 +2219,12 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" s="9">
+        <v>77</v>
+      </c>
+      <c r="C49" s="8">
         <v>4</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -2745,12 +2235,12 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="9">
+        <v>78</v>
+      </c>
+      <c r="C50" s="8">
         <v>2.2999999999999998</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -2761,12 +2251,12 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" s="9">
+        <v>79</v>
+      </c>
+      <c r="C51" s="8">
         <v>4.4000000000000004</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -2777,12 +2267,12 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="9">
+        <v>80</v>
+      </c>
+      <c r="C52" s="8">
         <v>3.7</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -2793,592 +2283,592 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="9">
+        <v>81</v>
+      </c>
+      <c r="C53" s="8">
         <v>6.3</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" s="9">
+        <v>82</v>
+      </c>
+      <c r="C54" s="8">
         <v>4.8</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" s="9">
+        <v>83</v>
+      </c>
+      <c r="C55" s="8">
         <v>4.8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="9">
+        <v>84</v>
+      </c>
+      <c r="C56" s="8">
         <v>4.8</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="9">
+        <v>85</v>
+      </c>
+      <c r="C57" s="8">
         <v>4.3</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="9">
+        <v>86</v>
+      </c>
+      <c r="C58" s="8">
         <v>4.8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="9">
+        <v>87</v>
+      </c>
+      <c r="C59" s="8">
         <v>4.8</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C60" s="9">
+        <v>88</v>
+      </c>
+      <c r="C60" s="8">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
-        <v>41</v>
+      <c r="A61" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C61" s="9">
+        <v>90</v>
+      </c>
+      <c r="C61" s="8">
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
-        <v>41</v>
+      <c r="A62" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C62" s="9">
+        <v>91</v>
+      </c>
+      <c r="C62" s="8">
         <v>2</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
-        <v>41</v>
+      <c r="A63" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C63" s="9">
+        <v>92</v>
+      </c>
+      <c r="C63" s="8">
         <v>0.9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="7" t="s">
-        <v>41</v>
+      <c r="A64" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C64" s="9">
+        <v>93</v>
+      </c>
+      <c r="C64" s="8">
         <v>1.2</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
-        <v>41</v>
+      <c r="A65" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C65" s="9">
+        <v>94</v>
+      </c>
+      <c r="C65" s="8">
         <v>0.7</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="s">
-        <v>41</v>
+      <c r="A66" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C66" s="9">
+        <v>95</v>
+      </c>
+      <c r="C66" s="8">
         <v>0.7</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
-        <v>41</v>
+      <c r="A67" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C67" s="9">
+        <v>96</v>
+      </c>
+      <c r="C67" s="8">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="7" t="s">
-        <v>41</v>
+      <c r="A68" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C68" s="9">
+        <v>97</v>
+      </c>
+      <c r="C68" s="8">
         <v>0.2</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="7" t="s">
-        <v>41</v>
+      <c r="A69" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C69" s="9">
+        <v>98</v>
+      </c>
+      <c r="C69" s="8">
         <v>0.9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="7" t="s">
-        <v>41</v>
+      <c r="A70" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C70" s="9">
+        <v>99</v>
+      </c>
+      <c r="C70" s="8">
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="7" t="s">
-        <v>41</v>
+      <c r="A71" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C71" s="9">
+        <v>100</v>
+      </c>
+      <c r="C71" s="8">
         <v>0.8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="7" t="s">
-        <v>41</v>
+      <c r="A72" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C72" s="9">
+        <v>101</v>
+      </c>
+      <c r="C72" s="8">
         <v>0.8</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="7" t="s">
-        <v>41</v>
+      <c r="A73" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C73" s="9">
+        <v>102</v>
+      </c>
+      <c r="C73" s="8">
         <v>0.8</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="7" t="s">
-        <v>41</v>
+      <c r="A74" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C74" s="9">
+        <v>103</v>
+      </c>
+      <c r="C74" s="8">
         <v>0.8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="7" t="s">
-        <v>41</v>
+      <c r="A75" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="8">
         <v>0.7</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="7" t="s">
-        <v>41</v>
+      <c r="A76" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C76" s="9">
+        <v>104</v>
+      </c>
+      <c r="C76" s="8">
         <v>0.7</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="7" t="s">
-        <v>41</v>
+      <c r="A77" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C77" s="9">
+        <v>105</v>
+      </c>
+      <c r="C77" s="8">
         <v>0.6</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="7" t="s">
-        <v>41</v>
+      <c r="A78" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C78" s="9">
+        <v>106</v>
+      </c>
+      <c r="C78" s="8">
         <v>0.6</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="7" t="s">
-        <v>41</v>
+      <c r="A79" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C79" s="9">
-        <v>1.2</v>
+        <v>107</v>
+      </c>
+      <c r="C79" s="8">
+        <v>4</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="7" t="s">
-        <v>41</v>
+      <c r="A80" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C80" s="9">
-        <v>1.2</v>
+        <v>108</v>
+      </c>
+      <c r="C80" s="8">
+        <v>4</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="7" t="s">
-        <v>41</v>
+      <c r="A81" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C81" s="9">
-        <v>1.2</v>
+        <v>109</v>
+      </c>
+      <c r="C81" s="8">
+        <v>4</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="7" t="s">
-        <v>41</v>
+      <c r="A82" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C82" s="9">
-        <v>1.2</v>
+        <v>110</v>
+      </c>
+      <c r="C82" s="8">
+        <v>4</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="7" t="s">
-        <v>41</v>
+      <c r="A83" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C83" s="9">
-        <v>1.2</v>
+        <v>111</v>
+      </c>
+      <c r="C83" s="8">
+        <v>3.8</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="7" t="s">
-        <v>41</v>
+      <c r="A84" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C84" s="9">
-        <v>1.2</v>
+        <v>112</v>
+      </c>
+      <c r="C84" s="8">
+        <v>3.8</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="7" t="s">
-        <v>41</v>
+      <c r="A85" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C85" s="9">
-        <v>0.8</v>
+        <v>113</v>
+      </c>
+      <c r="C85" s="8">
+        <v>1.2</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="7" t="s">
-        <v>41</v>
+      <c r="A86" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C86" s="9">
-        <v>0.8</v>
+        <v>114</v>
+      </c>
+      <c r="C86" s="8">
+        <v>1.2</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="7" t="s">
-        <v>41</v>
+      <c r="A87" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C87" s="9">
-        <v>0.8</v>
+        <v>62</v>
+      </c>
+      <c r="C87" s="8">
+        <v>0.5</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="7" t="s">
-        <v>41</v>
+      <c r="A88" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C88" s="9">
-        <v>0.8</v>
+        <v>115</v>
+      </c>
+      <c r="C88" s="8">
+        <v>4.2</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="7" t="s">
-        <v>41</v>
+      <c r="A89" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C89" s="9">
-        <v>0.8</v>
+        <v>116</v>
+      </c>
+      <c r="C89" s="8">
+        <v>4</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -3388,13 +2878,13 @@
         <v>40</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C90" s="9">
+        <v>117</v>
+      </c>
+      <c r="C90" s="8">
         <v>4</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
@@ -3404,13 +2894,13 @@
         <v>40</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C91" s="9">
-        <v>4</v>
+        <v>118</v>
+      </c>
+      <c r="C91" s="8">
+        <v>5.2</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -3420,13 +2910,13 @@
         <v>40</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C92" s="9">
-        <v>4</v>
+        <v>119</v>
+      </c>
+      <c r="C92" s="8">
+        <v>4.2</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -3436,13 +2926,13 @@
         <v>40</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C93" s="9">
-        <v>4</v>
+        <v>120</v>
+      </c>
+      <c r="C93" s="8">
+        <v>3.8</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
@@ -3452,13 +2942,13 @@
         <v>40</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C94" s="9">
-        <v>3.8</v>
+        <v>119</v>
+      </c>
+      <c r="C94" s="8">
+        <v>4</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -3468,13 +2958,13 @@
         <v>40</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C95" s="9">
-        <v>3.8</v>
+        <v>121</v>
+      </c>
+      <c r="C95" s="8">
+        <v>2.8</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -3484,13 +2974,13 @@
         <v>40</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C96" s="9">
-        <v>1.2</v>
+        <v>122</v>
+      </c>
+      <c r="C96" s="8">
+        <v>2.8</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -3500,13 +2990,13 @@
         <v>40</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C97" s="9">
-        <v>1.2</v>
+        <v>123</v>
+      </c>
+      <c r="C97" s="8">
+        <v>2.8</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
@@ -3516,42 +3006,42 @@
         <v>40</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C98" s="9">
-        <v>0.5</v>
+        <v>124</v>
+      </c>
+      <c r="C98" s="8">
+        <v>2.8</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C99" s="9">
-        <v>4.2</v>
+        <v>125</v>
+      </c>
+      <c r="C99" s="8">
+        <v>3</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>43</v>
+      <c r="A100" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C100" s="9">
-        <v>4</v>
+        <v>126</v>
+      </c>
+      <c r="C100" s="8">
+        <v>3</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>45</v>
@@ -3560,14 +3050,14 @@
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>43</v>
+      <c r="A101" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C101" s="9">
-        <v>4</v>
+        <v>127</v>
+      </c>
+      <c r="C101" s="8">
+        <v>3</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>45</v>
@@ -3576,14 +3066,14 @@
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
-        <v>43</v>
+      <c r="A102" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C102" s="9">
-        <v>5.2</v>
+        <v>123</v>
+      </c>
+      <c r="C102" s="8">
+        <v>2.8</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>45</v>
@@ -3592,14 +3082,14 @@
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>43</v>
+      <c r="A103" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C103" s="9">
-        <v>4.2</v>
+        <v>128</v>
+      </c>
+      <c r="C103" s="8">
+        <v>3</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>45</v>
@@ -3608,14 +3098,14 @@
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>43</v>
+      <c r="A104" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C104" s="9">
-        <v>3.8</v>
+        <v>129</v>
+      </c>
+      <c r="C104" s="8">
+        <v>2.8</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>45</v>
@@ -3624,14 +3114,14 @@
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
-        <v>43</v>
+      <c r="A105" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C105" s="9">
-        <v>4</v>
+        <v>130</v>
+      </c>
+      <c r="C105" s="8">
+        <v>2.8</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>45</v>
@@ -3640,65 +3130,65 @@
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
-        <v>43</v>
+      <c r="A106" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C106" s="9">
-        <v>2.8</v>
+        <v>131</v>
+      </c>
+      <c r="C106" s="8">
+        <v>3.9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C107" s="9">
-        <v>2.8</v>
+        <v>132</v>
+      </c>
+      <c r="C107" s="8">
+        <v>4.5</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C108" s="9">
-        <v>2.8</v>
+        <v>133</v>
+      </c>
+      <c r="C108" s="8">
+        <v>3.9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C109" s="9">
-        <v>2.8</v>
+        <v>134</v>
+      </c>
+      <c r="C109" s="8">
+        <v>4.5</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -3708,10 +3198,10 @@
         <v>48</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C110" s="9">
-        <v>3</v>
+        <v>135</v>
+      </c>
+      <c r="C110" s="8">
+        <v>3.9</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>48</v>
@@ -3720,14 +3210,14 @@
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C111" s="9">
-        <v>3</v>
+        <v>136</v>
+      </c>
+      <c r="C111" s="8">
+        <v>4.9000000000000004</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>48</v>
@@ -3736,14 +3226,14 @@
       <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C112" s="9">
-        <v>3</v>
+        <v>137</v>
+      </c>
+      <c r="C112" s="8">
+        <v>3.9</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>48</v>
@@ -3752,14 +3242,14 @@
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="7" t="s">
+      <c r="A113" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C113" s="9">
-        <v>2.8</v>
+      <c r="C113" s="8">
+        <v>4.9000000000000004</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>48</v>
@@ -3768,14 +3258,14 @@
       <c r="F113" s="2"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C114" s="9">
-        <v>3</v>
+        <v>139</v>
+      </c>
+      <c r="C114" s="8">
+        <v>3.9</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>48</v>
@@ -3784,14 +3274,14 @@
       <c r="F114" s="2"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="7" t="s">
+      <c r="A115" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C115" s="9">
-        <v>2.8</v>
+        <v>140</v>
+      </c>
+      <c r="C115" s="8">
+        <v>4.9000000000000004</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>48</v>
@@ -3800,558 +3290,558 @@
       <c r="F115" s="2"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="7" t="s">
-        <v>48</v>
+      <c r="A116" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C116" s="9">
-        <v>2.8</v>
+        <v>141</v>
+      </c>
+      <c r="C116" s="8">
+        <v>4.8</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="5" t="s">
-        <v>51</v>
+      <c r="A117" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C117" s="9">
-        <v>3.9</v>
+        <v>142</v>
+      </c>
+      <c r="C117" s="8">
+        <v>4.8</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
-        <v>51</v>
+      <c r="A118" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C118" s="9">
-        <v>4.5</v>
+        <v>143</v>
+      </c>
+      <c r="C118" s="8">
+        <v>4.8</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
-        <v>51</v>
+      <c r="A119" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C119" s="9">
-        <v>3.9</v>
+        <v>144</v>
+      </c>
+      <c r="C119" s="8">
+        <v>4.8</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>51</v>
+      <c r="A120" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C120" s="9">
-        <v>4.5</v>
+        <v>145</v>
+      </c>
+      <c r="C120" s="8">
+        <v>4.8</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
-        <v>51</v>
+      <c r="A121" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C121" s="9">
-        <v>3.9</v>
+        <v>146</v>
+      </c>
+      <c r="C121" s="8">
+        <v>4.8</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
-        <v>51</v>
+      <c r="A122" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C122" s="9">
-        <v>4.9000000000000004</v>
+        <v>147</v>
+      </c>
+      <c r="C122" s="8">
+        <v>4.8</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
-        <v>51</v>
+      <c r="A123" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C123" s="9">
-        <v>3.9</v>
+        <v>148</v>
+      </c>
+      <c r="C123" s="8">
+        <v>4.8</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
-        <v>51</v>
+      <c r="A124" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C124" s="9">
-        <v>4.9000000000000004</v>
+        <v>149</v>
+      </c>
+      <c r="C124" s="8">
+        <v>6.5</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
-        <v>51</v>
+      <c r="A125" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C125" s="9">
-        <v>3.9</v>
+        <v>150</v>
+      </c>
+      <c r="C125" s="8">
+        <v>5.8</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
-        <v>51</v>
+      <c r="A126" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C126" s="9">
-        <v>4.9000000000000004</v>
+        <v>151</v>
+      </c>
+      <c r="C126" s="8">
+        <v>6.8</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
-        <v>351</v>
+      <c r="A127" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C127" s="9">
-        <v>1.2</v>
+        <v>152</v>
+      </c>
+      <c r="C127" s="8">
+        <v>2.2000000000000002</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="7" t="s">
-        <v>351</v>
+      <c r="A128" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C128" s="9">
-        <v>1.4</v>
+        <v>153</v>
+      </c>
+      <c r="C128" s="8">
+        <v>3.2</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="7" t="s">
-        <v>351</v>
+      <c r="A129" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C129" s="9">
-        <v>1.8</v>
+        <v>154</v>
+      </c>
+      <c r="C129" s="8">
+        <v>4</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="7" t="s">
-        <v>351</v>
+      <c r="A130" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C130" s="9">
-        <v>2.2999999999999998</v>
+        <v>155</v>
+      </c>
+      <c r="C130" s="8">
+        <v>2.2000000000000002</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
-        <v>350</v>
+      <c r="A131" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C131" s="9">
-        <v>4.8</v>
+        <v>156</v>
+      </c>
+      <c r="C131" s="8">
+        <v>0.5</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="7" t="s">
-        <v>350</v>
+      <c r="A132" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C132" s="9">
-        <v>4.8</v>
+        <v>157</v>
+      </c>
+      <c r="C132" s="8">
+        <v>2</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="7" t="s">
-        <v>350</v>
+      <c r="A133" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C133" s="9">
-        <v>4.8</v>
+        <v>158</v>
+      </c>
+      <c r="C133" s="8">
+        <v>2</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="7" t="s">
-        <v>350</v>
+      <c r="A134" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C134" s="9">
-        <v>4.8</v>
+        <v>159</v>
+      </c>
+      <c r="C134" s="8">
+        <v>0.5</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="7" t="s">
-        <v>350</v>
+      <c r="A135" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C135" s="9">
-        <v>4.8</v>
+        <v>200</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="7" t="s">
-        <v>350</v>
+      <c r="A136" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C136" s="9">
-        <v>4.8</v>
+        <v>201</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="7" t="s">
-        <v>350</v>
+      <c r="A137" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C137" s="9">
-        <v>4.8</v>
+        <v>202</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="7" t="s">
-        <v>350</v>
+      <c r="A138" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C138" s="9">
-        <v>4.8</v>
+        <v>203</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="7" t="s">
-        <v>350</v>
+      <c r="A139" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C139" s="9">
-        <v>6.5</v>
+        <v>204</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="7" t="s">
-        <v>350</v>
+      <c r="A140" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C140" s="9">
-        <v>5.8</v>
+        <v>205</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="7" t="s">
-        <v>350</v>
+      <c r="A141" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C141" s="9">
-        <v>6.8</v>
+        <v>206</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="7" t="s">
-        <v>350</v>
+      <c r="A142" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C142" s="9">
-        <v>2.2000000000000002</v>
+        <v>207</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="7" t="s">
-        <v>350</v>
+      <c r="A143" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C143" s="9">
-        <v>3.2</v>
+        <v>166</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="7" t="s">
-        <v>350</v>
+      <c r="A144" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C144" s="9">
-        <v>4</v>
+        <v>208</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="7" t="s">
-        <v>350</v>
+      <c r="A145" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C145" s="9">
-        <v>2.2000000000000002</v>
+        <v>209</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="7" t="s">
-        <v>350</v>
+      <c r="A146" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C146" s="9">
-        <v>0.5</v>
+        <v>210</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="7" t="s">
-        <v>350</v>
+      <c r="A147" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C147" s="9">
-        <v>2</v>
+        <v>168</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="7" t="s">
-        <v>350</v>
+      <c r="A148" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C148" s="9">
-        <v>2</v>
+        <v>169</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="7" t="s">
-        <v>350</v>
+      <c r="A149" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C149" s="9">
-        <v>0.5</v>
+        <v>171</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
-        <v>31</v>
+      <c r="A150" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C150" s="9">
-        <v>5.9</v>
+        <v>173</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>13</v>
@@ -4360,14 +3850,14 @@
       <c r="F150" s="2"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="2" t="s">
-        <v>31</v>
+      <c r="A151" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C151" s="9">
-        <v>5.9</v>
+        <v>175</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>13</v>
@@ -4376,14 +3866,14 @@
       <c r="F151" s="2"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="2" t="s">
-        <v>31</v>
+      <c r="A152" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C152" s="9">
-        <v>5.9</v>
+        <v>177</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>13</v>
@@ -4392,14 +3882,14 @@
       <c r="F152" s="2"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="s">
-        <v>31</v>
+      <c r="A153" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C153" s="9">
-        <v>5.9</v>
+        <v>179</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>13</v>
@@ -4408,2024 +3898,709 @@
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="s">
-        <v>183</v>
+      <c r="A154" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C154" s="9">
-        <v>3.8</v>
+        <v>181</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="2" t="s">
+      <c r="A155" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C155" s="9" t="s">
-        <v>187</v>
+      <c r="C155" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="s">
-        <v>183</v>
+      <c r="A156" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C156" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C156" s="8" t="s">
         <v>185</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="2" t="s">
-        <v>183</v>
+      <c r="A157" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C157" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C157" s="8" t="s">
         <v>187</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="2" t="s">
-        <v>183</v>
+      <c r="A158" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C158" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="2" t="s">
-        <v>183</v>
+      <c r="A159" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C159" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="2" t="s">
-        <v>183</v>
+      <c r="A160" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C160" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="2" t="s">
-        <v>183</v>
+      <c r="A161" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C161" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C161" s="8" t="s">
         <v>194</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="2" t="s">
-        <v>183</v>
+      <c r="A162" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C162" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C163" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A163" s="6"/>
+      <c r="B163" s="2"/>
+      <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C164" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A164" s="6"/>
+      <c r="B164" s="2"/>
+      <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C165" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A165" s="6"/>
+      <c r="B165" s="2"/>
+      <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C166" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A166" s="6"/>
+      <c r="B166" s="2"/>
+      <c r="D166" s="2"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C167" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A167" s="6"/>
+      <c r="B167" s="2"/>
+      <c r="D167" s="2"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C168" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A168" s="6"/>
+      <c r="B168" s="2"/>
+      <c r="D168" s="2"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C169" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A169" s="6"/>
+      <c r="B169" s="2"/>
+      <c r="D169" s="2"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C170" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A170" s="6"/>
+      <c r="B170" s="2"/>
+      <c r="D170" s="2"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C171" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A171" s="6"/>
+      <c r="B171" s="2"/>
+      <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C172" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A172" s="6"/>
+      <c r="B172" s="2"/>
+      <c r="D172" s="2"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C173" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A173" s="6"/>
+      <c r="B173" s="2"/>
+      <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C174" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A174" s="6"/>
+      <c r="B174" s="2"/>
+      <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C175" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A175" s="6"/>
+      <c r="B175" s="2"/>
+      <c r="D175" s="2"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C176" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A176" s="6"/>
+      <c r="B176" s="2"/>
+      <c r="D176" s="2"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C177" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A177" s="6"/>
+      <c r="B177" s="2"/>
+      <c r="D177" s="2"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C178" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A178" s="6"/>
+      <c r="B178" s="2"/>
+      <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C179" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A179" s="6"/>
+      <c r="B179" s="2"/>
+      <c r="D179" s="2"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C180" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A180" s="6"/>
+      <c r="B180" s="2"/>
+      <c r="D180" s="2"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C181" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A181" s="6"/>
+      <c r="B181" s="2"/>
+      <c r="D181" s="2"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C182" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A182" s="6"/>
+      <c r="B182" s="2"/>
+      <c r="D182" s="2"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C183" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A183" s="6"/>
+      <c r="B183" s="2"/>
+      <c r="D183" s="2"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C184" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A184" s="6"/>
+      <c r="B184" s="2"/>
+      <c r="D184" s="2"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C185" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A185" s="6"/>
+      <c r="B185" s="2"/>
+      <c r="D185" s="2"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C186" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A186" s="6"/>
+      <c r="B186" s="2"/>
+      <c r="D186" s="2"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C187" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A187" s="6"/>
+      <c r="B187" s="2"/>
+      <c r="D187" s="2"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C188" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A188" s="6"/>
+      <c r="B188" s="2"/>
+      <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C189" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A189" s="6"/>
+      <c r="B189" s="2"/>
+      <c r="D189" s="2"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C190" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A190" s="2"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="7"/>
+      <c r="D190" s="2"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C191" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="7"/>
+      <c r="D191" s="2"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C192" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A192" s="2"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="7"/>
+      <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C193" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A193" s="2"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="7"/>
+      <c r="D193" s="2"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C194" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="7"/>
+      <c r="D194" s="2"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C195" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="7"/>
+      <c r="D195" s="2"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C196" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="7"/>
+      <c r="D196" s="2"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A197" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C197" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="7"/>
+      <c r="D197" s="2"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A198" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C198" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A198" s="2"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="7"/>
+      <c r="D198" s="2"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C199" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="7"/>
+      <c r="D199" s="2"/>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C200" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="7"/>
+      <c r="D200" s="2"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C201" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A201" s="2"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="7"/>
+      <c r="D201" s="2"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A202" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C202" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="7"/>
+      <c r="D202" s="2"/>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A203" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C203" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A203" s="2"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="7"/>
+      <c r="D203" s="2"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A204" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C204" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A204" s="2"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="7"/>
+      <c r="D204" s="2"/>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A205" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C205" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A205" s="2"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="7"/>
+      <c r="D205" s="2"/>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A206" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C206" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A206" s="2"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="7"/>
+      <c r="D206" s="2"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A207" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C207" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A207" s="2"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="7"/>
+      <c r="D207" s="2"/>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A208" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C208" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A208" s="2"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="7"/>
+      <c r="D208" s="2"/>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A209" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C209" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A209" s="2"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="7"/>
+      <c r="D209" s="2"/>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C210" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A210" s="2"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="7"/>
+      <c r="D210" s="2"/>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C211" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="7"/>
+      <c r="D211" s="2"/>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A212" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C212" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A212" s="2"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="7"/>
+      <c r="D212" s="2"/>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C213" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A213" s="2"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="7"/>
+      <c r="D213" s="2"/>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A214" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C214" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A214" s="2"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="7"/>
+      <c r="D214" s="2"/>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A215" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C215" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A215" s="2"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="7"/>
+      <c r="D215" s="2"/>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A216" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C216" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A216" s="2"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="7"/>
+      <c r="D216" s="2"/>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C217" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A217" s="2"/>
+      <c r="B217" s="2"/>
+      <c r="C217" s="7"/>
+      <c r="D217" s="2"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A218" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C218" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A218" s="2"/>
+      <c r="B218" s="2"/>
+      <c r="C218" s="7"/>
+      <c r="D218" s="2"/>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A219" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C219" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A219" s="2"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="7"/>
+      <c r="D219" s="2"/>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A220" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C220" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A220" s="2"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="7"/>
+      <c r="D220" s="2"/>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A221" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C221" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A221" s="2"/>
+      <c r="B221" s="2"/>
+      <c r="C221" s="7"/>
+      <c r="D221" s="2"/>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C222" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A222" s="2"/>
+      <c r="B222" s="2"/>
+      <c r="C222" s="7"/>
+      <c r="D222" s="2"/>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C223" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A223" s="2"/>
+      <c r="B223" s="2"/>
+      <c r="C223" s="7"/>
+      <c r="D223" s="2"/>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A224" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C224" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A224" s="2"/>
+      <c r="B224" s="2"/>
+      <c r="C224" s="7"/>
+      <c r="D224" s="2"/>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A225" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C225" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A225" s="2"/>
+      <c r="B225" s="2"/>
+      <c r="C225" s="7"/>
+      <c r="D225" s="2"/>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A226" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C226" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A226" s="2"/>
+      <c r="B226" s="5"/>
+      <c r="C226" s="7"/>
+      <c r="D226" s="2"/>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A227" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C227" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A227" s="2"/>
+      <c r="B227" s="5"/>
+      <c r="C227" s="7"/>
+      <c r="D227" s="2"/>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A228" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C228" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A228" s="2"/>
+      <c r="B228" s="2"/>
+      <c r="C228" s="7"/>
+      <c r="D228" s="2"/>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A229" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C229" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A229" s="2"/>
+      <c r="B229" s="2"/>
+      <c r="C229" s="7"/>
+      <c r="D229" s="2"/>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C230" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A230" s="2"/>
+      <c r="B230" s="5"/>
+      <c r="C230" s="7"/>
+      <c r="D230" s="2"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A231" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C231" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A231" s="2"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="7"/>
+      <c r="D231" s="2"/>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C232" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E232" s="2"/>
-      <c r="F232" s="2"/>
+      <c r="A232" s="2"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="7"/>
+      <c r="D232" s="2"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A233" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C233" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E233" s="2"/>
-      <c r="F233" s="2"/>
+      <c r="A233" s="2"/>
+      <c r="B233" s="5"/>
+      <c r="C233" s="7"/>
+      <c r="D233" s="2"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C234" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E234" s="2"/>
-      <c r="F234" s="2"/>
+      <c r="A234" s="2"/>
+      <c r="B234" s="5"/>
+      <c r="C234" s="7"/>
+      <c r="D234" s="2"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C235" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E235" s="2"/>
-      <c r="F235" s="2"/>
+      <c r="A235" s="2"/>
+      <c r="B235" s="2"/>
+      <c r="C235" s="7"/>
+      <c r="D235" s="2"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C236" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E236" s="2"/>
-      <c r="F236" s="2"/>
+      <c r="A236" s="2"/>
+      <c r="B236" s="2"/>
+      <c r="C236" s="7"/>
+      <c r="D236" s="2"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A237" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C237" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E237" s="2"/>
-      <c r="F237" s="2"/>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A238" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C238" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E238" s="2"/>
-      <c r="F238" s="2"/>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A239" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C239" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E239" s="2"/>
-      <c r="F239" s="2"/>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A240" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C240" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E240" s="2"/>
-      <c r="F240" s="2"/>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A241" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C241" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E241" s="2"/>
-      <c r="F241" s="2"/>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A242" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C242" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E242" s="2"/>
-      <c r="F242" s="2"/>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C243" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E243" s="2"/>
-      <c r="F243" s="2"/>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A244" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C244" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E244" s="2"/>
-      <c r="F244" s="2"/>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A245" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C245" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E245" s="2"/>
-      <c r="F245" s="2"/>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A246" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C246" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E246" s="2"/>
-      <c r="F246" s="2"/>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A247" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C247" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E247" s="2"/>
-      <c r="F247" s="2"/>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A248" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C248" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E248" s="2"/>
-      <c r="F248" s="2"/>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A249" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C249" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E249" s="2"/>
-      <c r="F249" s="2"/>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A250" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C250" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E250" s="2"/>
-      <c r="F250" s="2"/>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A251" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C251" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E251" s="2"/>
-      <c r="F251" s="2"/>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A252" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C252" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E252" s="2"/>
-      <c r="F252" s="2"/>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A253" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C253" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E253" s="2"/>
-      <c r="F253" s="2"/>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A254" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C254" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E254" s="2"/>
-      <c r="F254" s="2"/>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A255" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C255" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E255" s="2"/>
-      <c r="F255" s="2"/>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A256" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C256" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E256" s="2"/>
-      <c r="F256" s="2"/>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A257" s="2"/>
-      <c r="B257" s="2"/>
-      <c r="C257" s="8"/>
-      <c r="D257" s="2"/>
-      <c r="E257" s="2"/>
-      <c r="F257" s="2"/>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A258" s="2"/>
-      <c r="B258" s="2"/>
-      <c r="C258" s="8"/>
-      <c r="D258" s="2"/>
-      <c r="E258" s="2"/>
-      <c r="F258" s="2"/>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A259" s="2"/>
-      <c r="B259" s="2"/>
-      <c r="C259" s="8"/>
-      <c r="D259" s="2"/>
-      <c r="E259" s="2"/>
-      <c r="F259" s="2"/>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A260" s="2"/>
-      <c r="B260" s="2"/>
-      <c r="C260" s="8"/>
-      <c r="D260" s="2"/>
-      <c r="E260" s="2"/>
-      <c r="F260" s="2"/>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A261" s="2"/>
-      <c r="B261" s="2"/>
-      <c r="C261" s="8"/>
-      <c r="D261" s="2"/>
-      <c r="E261" s="2"/>
-      <c r="F261" s="2"/>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A262" s="2"/>
-      <c r="B262" s="2"/>
-      <c r="C262" s="8"/>
-      <c r="D262" s="2"/>
-      <c r="E262" s="2"/>
-      <c r="F262" s="2"/>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A263" s="2"/>
-      <c r="B263" s="2"/>
-      <c r="C263" s="8"/>
-      <c r="D263" s="2"/>
-      <c r="E263" s="2"/>
-      <c r="F263" s="2"/>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A264" s="2"/>
-      <c r="B264" s="2"/>
-      <c r="C264" s="8"/>
-      <c r="D264" s="2"/>
-      <c r="E264" s="2"/>
-      <c r="F264" s="2"/>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A265" s="2"/>
-      <c r="B265" s="2"/>
-      <c r="C265" s="8"/>
-      <c r="D265" s="2"/>
-      <c r="E265" s="2"/>
-      <c r="F265" s="2"/>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A266" s="2"/>
-      <c r="B266" s="2"/>
-      <c r="C266" s="8"/>
-      <c r="D266" s="2"/>
-      <c r="E266" s="2"/>
-      <c r="F266" s="2"/>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A267" s="2"/>
-      <c r="B267" s="2"/>
-      <c r="C267" s="8"/>
-      <c r="D267" s="2"/>
-      <c r="E267" s="2"/>
-      <c r="F267" s="2"/>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A268" s="2"/>
-      <c r="B268" s="2"/>
-      <c r="C268" s="8"/>
-      <c r="D268" s="2"/>
-      <c r="E268" s="2"/>
-      <c r="F268" s="2"/>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A269" s="2"/>
-      <c r="B269" s="2"/>
-      <c r="C269" s="8"/>
-      <c r="D269" s="2"/>
-      <c r="E269" s="2"/>
-      <c r="F269" s="2"/>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A270" s="2"/>
-      <c r="B270" s="2"/>
-      <c r="C270" s="8"/>
-      <c r="D270" s="2"/>
-      <c r="E270" s="2"/>
-      <c r="F270" s="2"/>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A271" s="2"/>
-      <c r="B271" s="2"/>
-      <c r="C271" s="8"/>
-      <c r="D271" s="2"/>
-      <c r="E271" s="2"/>
-      <c r="F271" s="2"/>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A272" s="2"/>
-      <c r="B272" s="2"/>
-      <c r="C272" s="8"/>
-      <c r="D272" s="2"/>
-      <c r="E272" s="2"/>
-      <c r="F272" s="2"/>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A273" s="2"/>
-      <c r="B273" s="2"/>
-      <c r="C273" s="8"/>
-      <c r="D273" s="2"/>
-      <c r="E273" s="2"/>
-      <c r="F273" s="2"/>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A274" s="2"/>
-      <c r="B274" s="2"/>
-      <c r="C274" s="8"/>
-      <c r="D274" s="2"/>
-      <c r="E274" s="2"/>
-      <c r="F274" s="2"/>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A275" s="2"/>
-      <c r="B275" s="2"/>
-      <c r="C275" s="8"/>
-      <c r="D275" s="2"/>
-      <c r="E275" s="2"/>
-      <c r="F275" s="2"/>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A276" s="2"/>
-      <c r="B276" s="2"/>
-      <c r="C276" s="8"/>
-      <c r="D276" s="2"/>
-      <c r="E276" s="2"/>
-      <c r="F276" s="2"/>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A277" s="2"/>
-      <c r="B277" s="2"/>
-      <c r="C277" s="8"/>
-      <c r="D277" s="2"/>
-      <c r="E277" s="2"/>
-      <c r="F277" s="2"/>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A278" s="2"/>
-      <c r="B278" s="2"/>
-      <c r="C278" s="8"/>
-      <c r="D278" s="2"/>
-      <c r="E278" s="2"/>
-      <c r="F278" s="2"/>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A279" s="2"/>
-      <c r="B279" s="2"/>
-      <c r="C279" s="8"/>
-      <c r="D279" s="2"/>
-      <c r="E279" s="2"/>
-      <c r="F279" s="2"/>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A280" s="2"/>
-      <c r="B280" s="2"/>
-      <c r="C280" s="8"/>
-      <c r="D280" s="2"/>
-      <c r="E280" s="2"/>
-      <c r="F280" s="2"/>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A281" s="2"/>
-      <c r="B281" s="2"/>
-      <c r="C281" s="8"/>
-      <c r="D281" s="2"/>
-      <c r="E281" s="2"/>
-      <c r="F281" s="2"/>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A282" s="2"/>
-      <c r="B282" s="2"/>
-      <c r="C282" s="8"/>
-      <c r="D282" s="2"/>
-      <c r="E282" s="2"/>
-      <c r="F282" s="2"/>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A283" s="2"/>
-      <c r="B283" s="2"/>
-      <c r="C283" s="8"/>
-      <c r="D283" s="2"/>
-      <c r="E283" s="2"/>
-      <c r="F283" s="2"/>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A284" s="2"/>
-      <c r="B284" s="2"/>
-      <c r="C284" s="8"/>
-      <c r="D284" s="2"/>
-      <c r="E284" s="2"/>
-      <c r="F284" s="2"/>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A285" s="2"/>
-      <c r="B285" s="2"/>
-      <c r="C285" s="8"/>
-      <c r="D285" s="2"/>
-      <c r="E285" s="2"/>
-      <c r="F285" s="2"/>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A286" s="2"/>
-      <c r="B286" s="2"/>
-      <c r="C286" s="8"/>
-      <c r="D286" s="2"/>
-      <c r="E286" s="2"/>
-      <c r="F286" s="2"/>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A287" s="2"/>
-      <c r="B287" s="2"/>
-      <c r="C287" s="8"/>
-      <c r="D287" s="2"/>
-      <c r="E287" s="2"/>
-      <c r="F287" s="2"/>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A288" s="2"/>
-      <c r="B288" s="2"/>
-      <c r="C288" s="8"/>
-      <c r="D288" s="2"/>
-      <c r="E288" s="2"/>
-      <c r="F288" s="2"/>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A289" s="2"/>
-      <c r="B289" s="2"/>
-      <c r="C289" s="8"/>
-      <c r="D289" s="2"/>
-      <c r="E289" s="2"/>
-      <c r="F289" s="2"/>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A290" s="2"/>
-      <c r="B290" s="2"/>
-      <c r="C290" s="8"/>
-      <c r="D290" s="2"/>
-      <c r="E290" s="2"/>
-      <c r="F290" s="2"/>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A291" s="2"/>
-      <c r="B291" s="2"/>
-      <c r="C291" s="8"/>
-      <c r="D291" s="2"/>
-      <c r="E291" s="2"/>
-      <c r="F291" s="2"/>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A292" s="2"/>
-      <c r="B292" s="2"/>
-      <c r="C292" s="8"/>
-      <c r="D292" s="2"/>
-      <c r="E292" s="2"/>
-      <c r="F292" s="2"/>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A293" s="2"/>
-      <c r="B293" s="6"/>
-      <c r="C293" s="8"/>
-      <c r="D293" s="2"/>
-      <c r="E293" s="2"/>
-      <c r="F293" s="2"/>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A294" s="2"/>
-      <c r="B294" s="6"/>
-      <c r="C294" s="8"/>
-      <c r="D294" s="2"/>
-      <c r="E294" s="2"/>
-      <c r="F294" s="2"/>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A295" s="2"/>
-      <c r="B295" s="2"/>
-      <c r="C295" s="8"/>
-      <c r="D295" s="2"/>
-      <c r="E295" s="2"/>
-      <c r="F295" s="2"/>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A296" s="2"/>
-      <c r="B296" s="2"/>
-      <c r="C296" s="8"/>
-      <c r="D296" s="2"/>
-      <c r="E296" s="2"/>
-      <c r="F296" s="2"/>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A297" s="2"/>
-      <c r="B297" s="6"/>
-      <c r="C297" s="8"/>
-      <c r="D297" s="2"/>
-      <c r="E297" s="2"/>
-      <c r="F297" s="2"/>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A298" s="2"/>
-      <c r="B298" s="2"/>
-      <c r="C298" s="8"/>
-      <c r="D298" s="2"/>
-      <c r="E298" s="2"/>
-      <c r="F298" s="2"/>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A299" s="2"/>
-      <c r="B299" s="2"/>
-      <c r="C299" s="8"/>
-      <c r="D299" s="2"/>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A300" s="2"/>
-      <c r="B300" s="6"/>
-      <c r="C300" s="8"/>
-      <c r="D300" s="2"/>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A301" s="2"/>
-      <c r="B301" s="6"/>
-      <c r="C301" s="8"/>
-      <c r="D301" s="2"/>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A302" s="2"/>
-      <c r="B302" s="2"/>
-      <c r="C302" s="8"/>
-      <c r="D302" s="2"/>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A303" s="2"/>
-      <c r="B303" s="2"/>
-      <c r="C303" s="8"/>
-      <c r="D303" s="2"/>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A304" s="2"/>
-      <c r="B304" s="2"/>
-      <c r="C304" s="8"/>
-      <c r="D304" s="2"/>
+      <c r="A237" s="2"/>
+      <c r="B237" s="2"/>
+      <c r="C237" s="7"/>
+      <c r="D237" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6437,7 +4612,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
@@ -6465,7 +4640,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>349</v>
+        <v>197</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -6479,7 +4654,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>347</v>
+        <v>196</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
@@ -6491,187 +4666,147 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.45833333333333331</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.45833333333333331</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>198</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/North Spine Canteen Details.xlsx
+++ b/North Spine Canteen Details.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU\CZ1003 Intro to Computational Thinking\Proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yi Shen\source\repos\ImportFromExcelTest\ImportFromExcelTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703D11F7-8DA3-4070-920B-36FEA9100E63}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="opening hours" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="212">
   <si>
     <t>s</t>
   </si>
@@ -654,19 +655,22 @@
   </si>
   <si>
     <t>1pc Chicken + Rice + Drink + Salted Egg</t>
+  </si>
+  <si>
+    <t>Average Wait Time (Minutes)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="hh:mm"/>
     <numFmt numFmtId="166" formatCode="hh&quot;:&quot;mm"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -717,9 +721,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -750,6 +754,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -965,23 +970,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="28.42578125" customWidth="1"/>
     <col min="3" max="4" width="14.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="12.75">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -995,7 +1000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="12.75">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1009,7 +1014,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="12.75">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1023,7 +1028,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12.75">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1037,7 +1042,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="12.75">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -1051,7 +1056,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="12.75">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -1065,7 +1070,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="12.75">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -1079,7 +1084,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="12.75">
       <c r="A8" s="2" t="s">
         <v>199</v>
       </c>
@@ -1093,7 +1098,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="12.75">
       <c r="A9" s="2" t="s">
         <v>199</v>
       </c>
@@ -1107,7 +1112,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="12.75">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -1121,7 +1126,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="12.75">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -1135,7 +1140,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="12.75">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -1149,7 +1154,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="12.75">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -1163,7 +1168,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="12.75">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -1177,7 +1182,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="12.75">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
@@ -1191,7 +1196,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="12.75">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -1205,7 +1210,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="12.75">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
@@ -1219,7 +1224,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="12.75">
       <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
@@ -1233,7 +1238,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="12.75">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -1247,7 +1252,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="12.75">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
@@ -1261,7 +1266,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="12.75">
       <c r="A21" s="2" t="s">
         <v>45</v>
       </c>
@@ -1275,7 +1280,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="12.75">
       <c r="A22" s="2" t="s">
         <v>48</v>
       </c>
@@ -1289,7 +1294,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="12.75">
       <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
@@ -1303,7 +1308,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="12.75">
       <c r="A24" s="2" t="s">
         <v>198</v>
       </c>
@@ -1317,7 +1322,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="12.75">
       <c r="A25" s="6" t="s">
         <v>198</v>
       </c>
@@ -1331,7 +1336,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="12.75">
       <c r="A26" s="2" t="s">
         <v>197</v>
       </c>
@@ -1341,7 +1346,7 @@
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="12.75">
       <c r="A27" s="6" t="s">
         <v>197</v>
       </c>
@@ -1351,7 +1356,7 @@
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="12.75">
       <c r="A28" s="6" t="s">
         <v>197</v>
       </c>
@@ -1361,7 +1366,7 @@
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="12.75">
       <c r="A29" s="2" t="s">
         <v>196</v>
       </c>
@@ -1375,7 +1380,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="12.75">
       <c r="A30" s="6" t="s">
         <v>196</v>
       </c>
@@ -1389,7 +1394,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="12.75">
       <c r="A31" s="6" t="s">
         <v>196</v>
       </c>
@@ -1403,25 +1408,25 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="12.75">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="12.75">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="12.75">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
     </row>
@@ -1431,17 +1436,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F237"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A149" sqref="A149:XFD168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.7109375" bestFit="1" customWidth="1"/>
@@ -1449,7 +1454,7 @@
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1465,7 +1470,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1481,7 +1486,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1497,7 +1502,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1513,7 +1518,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1529,7 +1534,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1545,7 +1550,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1561,7 +1566,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1577,7 +1582,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1593,7 +1598,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1609,7 +1614,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1625,7 +1630,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1641,7 +1646,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1657,7 +1662,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -1673,7 +1678,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -1689,7 +1694,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -1705,7 +1710,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
@@ -1721,7 +1726,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
@@ -1737,7 +1742,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -1753,7 +1758,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1769,7 +1774,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -1785,7 +1790,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -1801,7 +1806,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -1817,7 +1822,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -1833,7 +1838,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -1849,7 +1854,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -1865,7 +1870,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -1881,7 +1886,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -1897,7 +1902,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -1913,7 +1918,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -1929,7 +1934,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
@@ -1945,7 +1950,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
@@ -1961,7 +1966,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
         <v>28</v>
       </c>
@@ -1977,7 +1982,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
         <v>28</v>
       </c>
@@ -1993,7 +1998,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
         <v>28</v>
       </c>
@@ -2009,7 +2014,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
         <v>199</v>
       </c>
@@ -2025,7 +2030,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="6" t="s">
         <v>199</v>
       </c>
@@ -2041,7 +2046,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="6" t="s">
         <v>199</v>
       </c>
@@ -2057,7 +2062,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="6" t="s">
         <v>199</v>
       </c>
@@ -2073,7 +2078,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="6" t="s">
         <v>199</v>
       </c>
@@ -2089,7 +2094,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="6" t="s">
         <v>199</v>
       </c>
@@ -2105,7 +2110,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="6" t="s">
         <v>199</v>
       </c>
@@ -2121,7 +2126,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" s="6" t="s">
         <v>199</v>
       </c>
@@ -2137,7 +2142,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" s="6" t="s">
         <v>199</v>
       </c>
@@ -2153,7 +2158,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" s="6" t="s">
         <v>199</v>
       </c>
@@ -2169,7 +2174,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" s="6" t="s">
         <v>199</v>
       </c>
@@ -2185,7 +2190,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" s="6" t="s">
         <v>199</v>
       </c>
@@ -2201,7 +2206,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
         <v>33</v>
       </c>
@@ -2217,7 +2222,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
         <v>33</v>
       </c>
@@ -2233,7 +2238,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
         <v>33</v>
       </c>
@@ -2249,7 +2254,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
         <v>33</v>
       </c>
@@ -2265,7 +2270,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
         <v>33</v>
       </c>
@@ -2281,7 +2286,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
         <v>36</v>
       </c>
@@ -2297,7 +2302,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
         <v>36</v>
       </c>
@@ -2313,7 +2318,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
         <v>36</v>
       </c>
@@ -2329,7 +2334,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" s="2" t="s">
         <v>36</v>
       </c>
@@ -2345,7 +2350,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" s="2" t="s">
         <v>36</v>
       </c>
@@ -2361,7 +2366,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
         <v>36</v>
       </c>
@@ -2377,7 +2382,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
         <v>36</v>
       </c>
@@ -2393,7 +2398,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
         <v>38</v>
       </c>
@@ -2409,7 +2414,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" s="6" t="s">
         <v>38</v>
       </c>
@@ -2425,7 +2430,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" s="6" t="s">
         <v>38</v>
       </c>
@@ -2441,7 +2446,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" s="6" t="s">
         <v>38</v>
       </c>
@@ -2457,7 +2462,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" s="6" t="s">
         <v>38</v>
       </c>
@@ -2473,7 +2478,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" s="6" t="s">
         <v>38</v>
       </c>
@@ -2489,7 +2494,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" s="6" t="s">
         <v>38</v>
       </c>
@@ -2505,7 +2510,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" s="6" t="s">
         <v>38</v>
       </c>
@@ -2521,7 +2526,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" s="6" t="s">
         <v>38</v>
       </c>
@@ -2537,7 +2542,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" s="6" t="s">
         <v>38</v>
       </c>
@@ -2553,7 +2558,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" s="6" t="s">
         <v>38</v>
       </c>
@@ -2569,7 +2574,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" s="6" t="s">
         <v>38</v>
       </c>
@@ -2585,7 +2590,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" s="6" t="s">
         <v>38</v>
       </c>
@@ -2601,7 +2606,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" s="6" t="s">
         <v>38</v>
       </c>
@@ -2617,7 +2622,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" s="6" t="s">
         <v>38</v>
       </c>
@@ -2633,7 +2638,7 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" s="6" t="s">
         <v>38</v>
       </c>
@@ -2649,7 +2654,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" s="6" t="s">
         <v>38</v>
       </c>
@@ -2665,7 +2670,7 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" s="6" t="s">
         <v>38</v>
       </c>
@@ -2681,7 +2686,7 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" s="6" t="s">
         <v>38</v>
       </c>
@@ -2697,7 +2702,7 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" s="2" t="s">
         <v>37</v>
       </c>
@@ -2713,7 +2718,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" s="2" t="s">
         <v>37</v>
       </c>
@@ -2729,7 +2734,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" s="2" t="s">
         <v>37</v>
       </c>
@@ -2745,7 +2750,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" s="2" t="s">
         <v>37</v>
       </c>
@@ -2761,7 +2766,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83" s="2" t="s">
         <v>37</v>
       </c>
@@ -2777,7 +2782,7 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="A84" s="2" t="s">
         <v>37</v>
       </c>
@@ -2793,7 +2798,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6">
       <c r="A85" s="2" t="s">
         <v>37</v>
       </c>
@@ -2809,7 +2814,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6">
       <c r="A86" s="2" t="s">
         <v>37</v>
       </c>
@@ -2825,7 +2830,7 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" s="2" t="s">
         <v>37</v>
       </c>
@@ -2841,7 +2846,7 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6">
       <c r="A88" s="2" t="s">
         <v>37</v>
       </c>
@@ -2857,7 +2862,7 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89" s="2" t="s">
         <v>40</v>
       </c>
@@ -2873,7 +2878,7 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" s="2" t="s">
         <v>40</v>
       </c>
@@ -2889,7 +2894,7 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91" s="2" t="s">
         <v>40</v>
       </c>
@@ -2905,7 +2910,7 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6">
       <c r="A92" s="2" t="s">
         <v>40</v>
       </c>
@@ -2921,7 +2926,7 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93" s="2" t="s">
         <v>40</v>
       </c>
@@ -2937,7 +2942,7 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" s="2" t="s">
         <v>40</v>
       </c>
@@ -2953,7 +2958,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6">
       <c r="A95" s="2" t="s">
         <v>40</v>
       </c>
@@ -2969,7 +2974,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6">
       <c r="A96" s="2" t="s">
         <v>40</v>
       </c>
@@ -2985,7 +2990,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6">
       <c r="A97" s="2" t="s">
         <v>40</v>
       </c>
@@ -3001,7 +3006,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6">
       <c r="A98" s="2" t="s">
         <v>40</v>
       </c>
@@ -3017,7 +3022,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6">
       <c r="A99" s="2" t="s">
         <v>45</v>
       </c>
@@ -3033,7 +3038,7 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6">
       <c r="A100" s="6" t="s">
         <v>45</v>
       </c>
@@ -3049,7 +3054,7 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6">
       <c r="A101" s="6" t="s">
         <v>45</v>
       </c>
@@ -3065,7 +3070,7 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6">
       <c r="A102" s="6" t="s">
         <v>45</v>
       </c>
@@ -3081,7 +3086,7 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6">
       <c r="A103" s="6" t="s">
         <v>45</v>
       </c>
@@ -3097,7 +3102,7 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6">
       <c r="A104" s="6" t="s">
         <v>45</v>
       </c>
@@ -3113,7 +3118,7 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6">
       <c r="A105" s="6" t="s">
         <v>45</v>
       </c>
@@ -3129,7 +3134,7 @@
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6">
       <c r="A106" s="4" t="s">
         <v>48</v>
       </c>
@@ -3145,7 +3150,7 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6">
       <c r="A107" s="2" t="s">
         <v>48</v>
       </c>
@@ -3161,7 +3166,7 @@
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6">
       <c r="A108" s="2" t="s">
         <v>48</v>
       </c>
@@ -3177,7 +3182,7 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6">
       <c r="A109" s="2" t="s">
         <v>48</v>
       </c>
@@ -3193,7 +3198,7 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6">
       <c r="A110" s="2" t="s">
         <v>48</v>
       </c>
@@ -3209,7 +3214,7 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6">
       <c r="A111" s="2" t="s">
         <v>48</v>
       </c>
@@ -3225,7 +3230,7 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6">
       <c r="A112" s="2" t="s">
         <v>48</v>
       </c>
@@ -3241,7 +3246,7 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6">
       <c r="A113" s="2" t="s">
         <v>48</v>
       </c>
@@ -3257,7 +3262,7 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6">
       <c r="A114" s="2" t="s">
         <v>48</v>
       </c>
@@ -3273,7 +3278,7 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6">
       <c r="A115" s="2" t="s">
         <v>48</v>
       </c>
@@ -3289,7 +3294,7 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6">
       <c r="A116" s="2" t="s">
         <v>198</v>
       </c>
@@ -3305,7 +3310,7 @@
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6">
       <c r="A117" s="6" t="s">
         <v>198</v>
       </c>
@@ -3321,7 +3326,7 @@
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6">
       <c r="A118" s="6" t="s">
         <v>198</v>
       </c>
@@ -3337,7 +3342,7 @@
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6">
       <c r="A119" s="6" t="s">
         <v>198</v>
       </c>
@@ -3353,7 +3358,7 @@
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6">
       <c r="A120" s="6" t="s">
         <v>198</v>
       </c>
@@ -3369,7 +3374,7 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6">
       <c r="A121" s="6" t="s">
         <v>198</v>
       </c>
@@ -3385,7 +3390,7 @@
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6">
       <c r="A122" s="6" t="s">
         <v>198</v>
       </c>
@@ -3401,7 +3406,7 @@
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6">
       <c r="A123" s="6" t="s">
         <v>198</v>
       </c>
@@ -3417,7 +3422,7 @@
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6">
       <c r="A124" s="6" t="s">
         <v>198</v>
       </c>
@@ -3433,7 +3438,7 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6">
       <c r="A125" s="6" t="s">
         <v>198</v>
       </c>
@@ -3449,7 +3454,7 @@
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6">
       <c r="A126" s="6" t="s">
         <v>198</v>
       </c>
@@ -3465,7 +3470,7 @@
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6">
       <c r="A127" s="6" t="s">
         <v>198</v>
       </c>
@@ -3481,7 +3486,7 @@
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6">
       <c r="A128" s="6" t="s">
         <v>198</v>
       </c>
@@ -3497,7 +3502,7 @@
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6">
       <c r="A129" s="6" t="s">
         <v>198</v>
       </c>
@@ -3513,7 +3518,7 @@
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6">
       <c r="A130" s="6" t="s">
         <v>198</v>
       </c>
@@ -3529,7 +3534,7 @@
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6">
       <c r="A131" s="6" t="s">
         <v>198</v>
       </c>
@@ -3545,7 +3550,7 @@
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6">
       <c r="A132" s="6" t="s">
         <v>198</v>
       </c>
@@ -3561,7 +3566,7 @@
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6">
       <c r="A133" s="6" t="s">
         <v>198</v>
       </c>
@@ -3577,7 +3582,7 @@
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6">
       <c r="A134" s="6" t="s">
         <v>198</v>
       </c>
@@ -3593,7 +3598,7 @@
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6">
       <c r="A135" s="2" t="s">
         <v>196</v>
       </c>
@@ -3609,7 +3614,7 @@
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6">
       <c r="A136" s="6" t="s">
         <v>196</v>
       </c>
@@ -3625,7 +3630,7 @@
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6">
       <c r="A137" s="6" t="s">
         <v>196</v>
       </c>
@@ -3641,7 +3646,7 @@
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6">
       <c r="A138" s="6" t="s">
         <v>196</v>
       </c>
@@ -3657,7 +3662,7 @@
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6">
       <c r="A139" s="6" t="s">
         <v>196</v>
       </c>
@@ -3673,7 +3678,7 @@
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6">
       <c r="A140" s="6" t="s">
         <v>196</v>
       </c>
@@ -3689,7 +3694,7 @@
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6">
       <c r="A141" s="6" t="s">
         <v>196</v>
       </c>
@@ -3705,7 +3710,7 @@
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6">
       <c r="A142" s="6" t="s">
         <v>196</v>
       </c>
@@ -3721,7 +3726,7 @@
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6">
       <c r="A143" s="6" t="s">
         <v>196</v>
       </c>
@@ -3737,7 +3742,7 @@
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6">
       <c r="A144" s="6" t="s">
         <v>196</v>
       </c>
@@ -3753,7 +3758,7 @@
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6">
       <c r="A145" s="6" t="s">
         <v>196</v>
       </c>
@@ -3769,7 +3774,7 @@
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6">
       <c r="A146" s="6" t="s">
         <v>196</v>
       </c>
@@ -3785,7 +3790,7 @@
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6">
       <c r="A147" s="6" t="s">
         <v>196</v>
       </c>
@@ -3801,7 +3806,7 @@
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6">
       <c r="A148" s="6" t="s">
         <v>196</v>
       </c>
@@ -3817,7 +3822,7 @@
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6">
       <c r="A149" s="2" t="s">
         <v>197</v>
       </c>
@@ -3833,7 +3838,7 @@
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6">
       <c r="A150" s="6" t="s">
         <v>197</v>
       </c>
@@ -3849,7 +3854,7 @@
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6">
       <c r="A151" s="6" t="s">
         <v>197</v>
       </c>
@@ -3865,7 +3870,7 @@
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6">
       <c r="A152" s="6" t="s">
         <v>197</v>
       </c>
@@ -3881,7 +3886,7 @@
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6">
       <c r="A153" s="6" t="s">
         <v>197</v>
       </c>
@@ -3897,7 +3902,7 @@
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6">
       <c r="A154" s="6" t="s">
         <v>197</v>
       </c>
@@ -3913,7 +3918,7 @@
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6">
       <c r="A155" s="6" t="s">
         <v>197</v>
       </c>
@@ -3929,7 +3934,7 @@
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6">
       <c r="A156" s="6" t="s">
         <v>197</v>
       </c>
@@ -3945,7 +3950,7 @@
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6">
       <c r="A157" s="6" t="s">
         <v>197</v>
       </c>
@@ -3961,7 +3966,7 @@
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6">
       <c r="A158" s="6" t="s">
         <v>197</v>
       </c>
@@ -3977,7 +3982,7 @@
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6">
       <c r="A159" s="6" t="s">
         <v>197</v>
       </c>
@@ -3993,7 +3998,7 @@
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6">
       <c r="A160" s="6" t="s">
         <v>197</v>
       </c>
@@ -4009,7 +4014,7 @@
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6">
       <c r="A161" s="6" t="s">
         <v>197</v>
       </c>
@@ -4025,7 +4030,7 @@
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6">
       <c r="A162" s="6" t="s">
         <v>197</v>
       </c>
@@ -4041,196 +4046,196 @@
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6">
       <c r="A163" s="6"/>
       <c r="B163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6">
       <c r="A164" s="6"/>
       <c r="B164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6">
       <c r="A165" s="6"/>
       <c r="B165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6">
       <c r="A166" s="6"/>
       <c r="B166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6">
       <c r="A167" s="6"/>
       <c r="B167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6">
       <c r="A168" s="6"/>
       <c r="B168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6">
       <c r="A169" s="6"/>
       <c r="B169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6">
       <c r="A170" s="6"/>
       <c r="B170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6">
       <c r="A171" s="6"/>
       <c r="B171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6">
       <c r="A172" s="6"/>
       <c r="B172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6">
       <c r="A173" s="6"/>
       <c r="B173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6">
       <c r="A174" s="6"/>
       <c r="B174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6">
       <c r="A175" s="6"/>
       <c r="B175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6">
       <c r="A176" s="6"/>
       <c r="B176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6">
       <c r="A177" s="6"/>
       <c r="B177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6">
       <c r="A178" s="6"/>
       <c r="B178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6">
       <c r="A179" s="6"/>
       <c r="B179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6">
       <c r="A180" s="6"/>
       <c r="B180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6">
       <c r="A181" s="6"/>
       <c r="B181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6">
       <c r="A182" s="6"/>
       <c r="B182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6">
       <c r="A183" s="6"/>
       <c r="B183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6">
       <c r="A184" s="6"/>
       <c r="B184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6">
       <c r="A185" s="6"/>
       <c r="B185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6">
       <c r="A186" s="6"/>
       <c r="B186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6">
       <c r="A187" s="6"/>
       <c r="B187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6">
       <c r="A188" s="6"/>
       <c r="B188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6">
       <c r="A189" s="6"/>
       <c r="B189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="7"/>
@@ -4238,7 +4243,7 @@
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="7"/>
@@ -4246,7 +4251,7 @@
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="7"/>
@@ -4254,7 +4259,7 @@
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="7"/>
@@ -4262,7 +4267,7 @@
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="7"/>
@@ -4270,7 +4275,7 @@
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="7"/>
@@ -4278,7 +4283,7 @@
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="7"/>
@@ -4286,7 +4291,7 @@
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="7"/>
@@ -4294,7 +4299,7 @@
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="7"/>
@@ -4302,7 +4307,7 @@
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="7"/>
@@ -4310,7 +4315,7 @@
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="7"/>
@@ -4318,7 +4323,7 @@
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="7"/>
@@ -4326,7 +4331,7 @@
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="7"/>
@@ -4334,7 +4339,7 @@
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="7"/>
@@ -4342,7 +4347,7 @@
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="7"/>
@@ -4350,7 +4355,7 @@
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="7"/>
@@ -4358,7 +4363,7 @@
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="7"/>
@@ -4366,7 +4371,7 @@
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="7"/>
@@ -4374,7 +4379,7 @@
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="7"/>
@@ -4382,7 +4387,7 @@
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="7"/>
@@ -4390,7 +4395,7 @@
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="7"/>
@@ -4398,7 +4403,7 @@
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="7"/>
@@ -4406,7 +4411,7 @@
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="7"/>
@@ -4414,7 +4419,7 @@
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="7"/>
@@ -4422,7 +4427,7 @@
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="7"/>
@@ -4430,7 +4435,7 @@
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="7"/>
@@ -4438,7 +4443,7 @@
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="7"/>
@@ -4446,7 +4451,7 @@
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="7"/>
@@ -4454,7 +4459,7 @@
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="7"/>
@@ -4462,7 +4467,7 @@
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="7"/>
@@ -4470,7 +4475,7 @@
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="7"/>
@@ -4478,7 +4483,7 @@
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="7"/>
@@ -4486,7 +4491,7 @@
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="7"/>
@@ -4494,7 +4499,7 @@
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="7"/>
@@ -4502,7 +4507,7 @@
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="7"/>
@@ -4510,7 +4515,7 @@
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="7"/>
@@ -4518,7 +4523,7 @@
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6">
       <c r="A226" s="2"/>
       <c r="B226" s="5"/>
       <c r="C226" s="7"/>
@@ -4526,7 +4531,7 @@
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6">
       <c r="A227" s="2"/>
       <c r="B227" s="5"/>
       <c r="C227" s="7"/>
@@ -4534,7 +4539,7 @@
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="7"/>
@@ -4542,7 +4547,7 @@
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="7"/>
@@ -4550,7 +4555,7 @@
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6">
       <c r="A230" s="2"/>
       <c r="B230" s="5"/>
       <c r="C230" s="7"/>
@@ -4558,7 +4563,7 @@
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="7"/>
@@ -4566,37 +4571,37 @@
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="7"/>
       <c r="D232" s="2"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6">
       <c r="A233" s="2"/>
       <c r="B233" s="5"/>
       <c r="C233" s="7"/>
       <c r="D233" s="2"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6">
       <c r="A234" s="2"/>
       <c r="B234" s="5"/>
       <c r="C234" s="7"/>
       <c r="D234" s="2"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="7"/>
       <c r="D235" s="2"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="7"/>
       <c r="D236" s="2"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="7"/>
@@ -4608,23 +4613,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4637,8 +4643,11 @@
       <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>197</v>
       </c>
@@ -4651,8 +4660,11 @@
       <c r="D2" s="3">
         <v>0.45833333333333331</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>196</v>
       </c>
@@ -4663,8 +4675,11 @@
         <v>14</v>
       </c>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -4675,8 +4690,11 @@
         <v>32</v>
       </c>
       <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -4687,8 +4705,11 @@
         <v>32</v>
       </c>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -4699,8 +4720,11 @@
         <v>32</v>
       </c>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>199</v>
       </c>
@@ -4711,8 +4735,11 @@
         <v>32</v>
       </c>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -4723,8 +4750,11 @@
         <v>32</v>
       </c>
       <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -4735,8 +4765,11 @@
         <v>32</v>
       </c>
       <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -4747,8 +4780,11 @@
         <v>32</v>
       </c>
       <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
@@ -4759,8 +4795,11 @@
         <v>32</v>
       </c>
       <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -4771,8 +4810,11 @@
         <v>32</v>
       </c>
       <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -4783,8 +4825,11 @@
         <v>32</v>
       </c>
       <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>48</v>
       </c>
@@ -4795,8 +4840,11 @@
         <v>32</v>
       </c>
       <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>198</v>
       </c>
@@ -4807,8 +4855,12 @@
         <v>32</v>
       </c>
       <c r="D15" s="2"/>
+      <c r="E15" s="16">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/North Spine Canteen Details.xlsx
+++ b/North Spine Canteen Details.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yi Shen\source\repos\ImportFromExcelTest\ImportFromExcelTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU\CZ1003 Intro to Computational Thinking\Proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703D11F7-8DA3-4070-920B-36FEA9100E63}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="opening hours" sheetId="1" r:id="rId1"/>
@@ -18,11 +17,12 @@
     <sheet name="store information" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="208">
   <si>
     <t>s</t>
   </si>
@@ -481,18 +481,6 @@
   </si>
   <si>
     <t>Crinkle Cut French Fries</t>
-  </si>
-  <si>
-    <t>Cheese Fries</t>
-  </si>
-  <si>
-    <t>Crispy Chicken with Fries</t>
-  </si>
-  <si>
-    <t>Jacket Potato with Bacon</t>
-  </si>
-  <si>
-    <t>Parmesan Cheese</t>
   </si>
   <si>
     <t xml:space="preserve">Spaghetti </t>
@@ -663,14 +651,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="hh:mm"/>
-    <numFmt numFmtId="166" formatCode="hh&quot;:&quot;mm"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="hh:mm"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -721,40 +709,31 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -970,37 +949,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="3" max="4" width="14.42578125" style="15"/>
+    <col min="3" max="4" width="14.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75">
+    <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75">
+    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1014,7 +993,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75">
+    <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1028,7 +1007,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75">
+    <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1042,7 +1021,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75">
+    <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -1056,7 +1035,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75">
+    <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -1070,7 +1049,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75">
+    <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -1084,9 +1063,9 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75">
+    <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -1098,9 +1077,9 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75">
+    <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
@@ -1112,7 +1091,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75">
+    <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -1126,7 +1105,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75">
+    <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -1140,7 +1119,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75">
+    <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -1154,7 +1133,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75">
+    <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -1168,21 +1147,21 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75">
+    <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="11">
         <v>0.29166666666666669</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="11">
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75">
+    <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
@@ -1196,7 +1175,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75">
+    <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -1210,7 +1189,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75">
+    <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
@@ -1224,7 +1203,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75">
+    <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
@@ -1238,7 +1217,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75">
+    <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -1252,21 +1231,21 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75">
+    <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="11">
         <v>0.3125</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="11">
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75">
+    <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>45</v>
       </c>
@@ -1280,7 +1259,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75">
+    <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>48</v>
       </c>
@@ -1294,7 +1273,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75">
+    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
@@ -1308,9 +1287,9 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75">
+    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>9</v>
@@ -1318,13 +1297,13 @@
       <c r="C24" s="11">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="11">
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75">
+    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>15</v>
@@ -1336,97 +1315,109 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75">
+    <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="1:4" ht="12.75">
+      <c r="C26" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="1:4" ht="12.75">
+      <c r="C27" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="1:4" ht="12.75">
+      <c r="C28" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="11">
         <v>0.3125</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="11">
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75">
+    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="11">
         <v>0.3125</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="11">
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75">
+    <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="11">
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75">
+    <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-    </row>
-    <row r="33" spans="1:4" ht="12.75">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="1:4" ht="12.75">
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1">
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
     </row>
@@ -1436,17 +1427,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F237"/>
+  <dimension ref="A1:F233"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A149" sqref="A149:XFD168"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="A131" sqref="A128:XFD131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.7109375" bestFit="1" customWidth="1"/>
@@ -1454,7 +1445,7 @@
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1470,7 +1461,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1486,7 +1477,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1502,7 +1493,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1518,7 +1509,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1534,7 +1525,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1550,7 +1541,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1566,7 +1557,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1582,7 +1573,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1598,7 +1589,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1614,7 +1605,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1630,7 +1621,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1646,7 +1637,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1662,7 +1653,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -1678,7 +1669,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -1694,7 +1685,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -1710,7 +1701,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
@@ -1726,7 +1717,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
@@ -1742,7 +1733,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -1758,7 +1749,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1774,7 +1765,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -1790,7 +1781,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -1806,7 +1797,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -1822,7 +1813,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -1838,7 +1829,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -1854,7 +1845,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -1870,7 +1861,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -1886,7 +1877,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -1902,7 +1893,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -1918,7 +1909,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -1934,7 +1925,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
@@ -1950,7 +1941,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
@@ -1966,7 +1957,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>28</v>
       </c>
@@ -1982,7 +1973,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>28</v>
       </c>
@@ -1998,7 +1989,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>28</v>
       </c>
@@ -2014,9 +2005,9 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>64</v>
@@ -2030,9 +2021,9 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>65</v>
@@ -2046,9 +2037,9 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>66</v>
@@ -2062,9 +2053,9 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>67</v>
@@ -2078,9 +2069,9 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>68</v>
@@ -2094,9 +2085,9 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>69</v>
@@ -2110,9 +2101,9 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>70</v>
@@ -2126,9 +2117,9 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>71</v>
@@ -2142,9 +2133,9 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>72</v>
@@ -2158,9 +2149,9 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>73</v>
@@ -2174,9 +2165,9 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>74</v>
@@ -2190,9 +2181,9 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>75</v>
@@ -2206,7 +2197,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>33</v>
       </c>
@@ -2222,7 +2213,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>33</v>
       </c>
@@ -2238,7 +2229,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>33</v>
       </c>
@@ -2254,7 +2245,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>33</v>
       </c>
@@ -2270,7 +2261,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>33</v>
       </c>
@@ -2286,7 +2277,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>36</v>
       </c>
@@ -2302,7 +2293,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>36</v>
       </c>
@@ -2318,7 +2309,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>36</v>
       </c>
@@ -2334,7 +2325,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>36</v>
       </c>
@@ -2350,7 +2341,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>36</v>
       </c>
@@ -2366,7 +2357,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>36</v>
       </c>
@@ -2382,7 +2373,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>36</v>
       </c>
@@ -2398,7 +2389,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>38</v>
       </c>
@@ -2414,7 +2405,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>38</v>
       </c>
@@ -2430,7 +2421,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>38</v>
       </c>
@@ -2446,7 +2437,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>38</v>
       </c>
@@ -2462,7 +2453,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>38</v>
       </c>
@@ -2478,7 +2469,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>38</v>
       </c>
@@ -2494,7 +2485,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>38</v>
       </c>
@@ -2510,7 +2501,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>38</v>
       </c>
@@ -2526,7 +2517,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>38</v>
       </c>
@@ -2542,7 +2533,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>38</v>
       </c>
@@ -2558,7 +2549,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>38</v>
       </c>
@@ -2574,7 +2565,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>38</v>
       </c>
@@ -2590,7 +2581,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>38</v>
       </c>
@@ -2606,7 +2597,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>38</v>
       </c>
@@ -2622,7 +2613,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>38</v>
       </c>
@@ -2638,7 +2629,7 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>38</v>
       </c>
@@ -2654,7 +2645,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>38</v>
       </c>
@@ -2670,7 +2661,7 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>38</v>
       </c>
@@ -2686,7 +2677,7 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>38</v>
       </c>
@@ -2702,7 +2693,7 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>37</v>
       </c>
@@ -2718,7 +2709,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>37</v>
       </c>
@@ -2734,7 +2725,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>37</v>
       </c>
@@ -2750,7 +2741,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>37</v>
       </c>
@@ -2766,7 +2757,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>37</v>
       </c>
@@ -2782,7 +2773,7 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>37</v>
       </c>
@@ -2798,7 +2789,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>37</v>
       </c>
@@ -2814,7 +2805,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>37</v>
       </c>
@@ -2830,7 +2821,7 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>37</v>
       </c>
@@ -2846,7 +2837,7 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>37</v>
       </c>
@@ -2862,7 +2853,7 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>40</v>
       </c>
@@ -2878,7 +2869,7 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>40</v>
       </c>
@@ -2894,7 +2885,7 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>40</v>
       </c>
@@ -2910,7 +2901,7 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>40</v>
       </c>
@@ -2926,7 +2917,7 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>40</v>
       </c>
@@ -2942,7 +2933,7 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>40</v>
       </c>
@@ -2958,7 +2949,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>40</v>
       </c>
@@ -2974,7 +2965,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>40</v>
       </c>
@@ -2990,7 +2981,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>40</v>
       </c>
@@ -3006,7 +2997,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>40</v>
       </c>
@@ -3022,7 +3013,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>45</v>
       </c>
@@ -3038,7 +3029,7 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>45</v>
       </c>
@@ -3054,7 +3045,7 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>45</v>
       </c>
@@ -3070,7 +3061,7 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>45</v>
       </c>
@@ -3086,7 +3077,7 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>45</v>
       </c>
@@ -3102,7 +3093,7 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>45</v>
       </c>
@@ -3118,7 +3109,7 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>45</v>
       </c>
@@ -3134,7 +3125,7 @@
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>48</v>
       </c>
@@ -3150,7 +3141,7 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>48</v>
       </c>
@@ -3166,7 +3157,7 @@
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>48</v>
       </c>
@@ -3182,7 +3173,7 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>48</v>
       </c>
@@ -3198,7 +3189,7 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>48</v>
       </c>
@@ -3214,7 +3205,7 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>48</v>
       </c>
@@ -3230,7 +3221,7 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>48</v>
       </c>
@@ -3246,7 +3237,7 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>48</v>
       </c>
@@ -3262,7 +3253,7 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>48</v>
       </c>
@@ -3278,7 +3269,7 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>48</v>
       </c>
@@ -3294,9 +3285,9 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>141</v>
@@ -3310,9 +3301,9 @@
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>142</v>
@@ -3326,9 +3317,9 @@
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>143</v>
@@ -3342,9 +3333,9 @@
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>144</v>
@@ -3358,9 +3349,9 @@
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>145</v>
@@ -3374,9 +3365,9 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>146</v>
@@ -3390,9 +3381,9 @@
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>147</v>
@@ -3406,9 +3397,9 @@
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>148</v>
@@ -3422,9 +3413,9 @@
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>149</v>
@@ -3438,9 +3429,9 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>150</v>
@@ -3454,9 +3445,9 @@
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>151</v>
@@ -3470,9 +3461,9 @@
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>152</v>
@@ -3486,15 +3477,15 @@
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C128" s="8">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>36</v>
@@ -3502,15 +3493,15 @@
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>154</v>
       </c>
       <c r="C129" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>36</v>
@@ -3518,15 +3509,15 @@
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C130" s="8">
-        <v>2.2000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>36</v>
@@ -3534,79 +3525,79 @@
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
     </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="6" t="s">
-        <v>198</v>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C131" s="8">
-        <v>0.5</v>
+        <v>196</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C132" s="8">
-        <v>2</v>
+        <v>197</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C133" s="8">
-        <v>2</v>
+      <c r="C133" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C134" s="8">
-        <v>0.5</v>
+        <v>199</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
     </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="2" t="s">
-        <v>196</v>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>200</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>13</v>
@@ -3614,15 +3605,15 @@
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>201</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>13</v>
@@ -3630,9 +3621,9 @@
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>202</v>
@@ -3646,15 +3637,15 @@
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>13</v>
@@ -3662,12 +3653,12 @@
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>163</v>
@@ -3678,15 +3669,15 @@
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>13</v>
@@ -3694,15 +3685,15 @@
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>13</v>
@@ -3710,15 +3701,15 @@
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>13</v>
@@ -3726,15 +3717,15 @@
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>13</v>
@@ -3742,15 +3733,15 @@
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>13</v>
@@ -3758,15 +3749,15 @@
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
     </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="6" t="s">
-        <v>196</v>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>13</v>
@@ -3774,15 +3765,15 @@
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>13</v>
@@ -3790,15 +3781,15 @@
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>13</v>
@@ -3806,15 +3797,15 @@
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>13</v>
@@ -3822,15 +3813,15 @@
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="1:6">
-      <c r="A149" s="2" t="s">
-        <v>197</v>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>13</v>
@@ -3838,15 +3829,15 @@
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>13</v>
@@ -3854,15 +3845,15 @@
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>13</v>
@@ -3870,15 +3861,15 @@
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>13</v>
@@ -3886,15 +3877,15 @@
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>13</v>
@@ -3902,15 +3893,15 @@
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C154" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>182</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>13</v>
@@ -3918,15 +3909,15 @@
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>13</v>
@@ -3934,15 +3925,15 @@
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>13</v>
@@ -3950,15 +3941,15 @@
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>13</v>
@@ -3966,15 +3957,15 @@
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>13</v>
@@ -3982,260 +3973,228 @@
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
     </row>
-    <row r="159" spans="1:6">
-      <c r="A159" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>13</v>
-      </c>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="6"/>
+      <c r="B159" s="2"/>
+      <c r="D159" s="2"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
     </row>
-    <row r="160" spans="1:6">
-      <c r="A160" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>13</v>
-      </c>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="6"/>
+      <c r="B160" s="2"/>
+      <c r="D160" s="2"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
     </row>
-    <row r="161" spans="1:6">
-      <c r="A161" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>13</v>
-      </c>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" s="6"/>
+      <c r="B161" s="2"/>
+      <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
     </row>
-    <row r="162" spans="1:6">
-      <c r="A162" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>13</v>
-      </c>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" s="6"/>
+      <c r="B162" s="2"/>
+      <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="6"/>
       <c r="B163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="6"/>
       <c r="B164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="6"/>
       <c r="B165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="6"/>
       <c r="B166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="6"/>
       <c r="B167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="6"/>
       <c r="B168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="6"/>
       <c r="B169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="6"/>
       <c r="B170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="6"/>
       <c r="B171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="6"/>
       <c r="B172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="6"/>
       <c r="B173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="6"/>
       <c r="B174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="6"/>
       <c r="B175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="6"/>
       <c r="B176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="6"/>
       <c r="B177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="6"/>
       <c r="B178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="6"/>
       <c r="B179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="6"/>
       <c r="B180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="6"/>
       <c r="B181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="6"/>
       <c r="B182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="6"/>
       <c r="B183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="6"/>
       <c r="B184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="6"/>
       <c r="B185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
     </row>
-    <row r="186" spans="1:6">
-      <c r="A186" s="6"/>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="2"/>
       <c r="B186" s="2"/>
+      <c r="C186" s="7"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
     </row>
-    <row r="187" spans="1:6">
-      <c r="A187" s="6"/>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="2"/>
       <c r="B187" s="2"/>
+      <c r="C187" s="7"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
     </row>
-    <row r="188" spans="1:6">
-      <c r="A188" s="6"/>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="2"/>
       <c r="B188" s="2"/>
+      <c r="C188" s="7"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
     </row>
-    <row r="189" spans="1:6">
-      <c r="A189" s="6"/>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="2"/>
       <c r="B189" s="2"/>
+      <c r="C189" s="7"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="7"/>
@@ -4243,7 +4202,7 @@
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="7"/>
@@ -4251,7 +4210,7 @@
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="7"/>
@@ -4259,7 +4218,7 @@
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="7"/>
@@ -4267,7 +4226,7 @@
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="7"/>
@@ -4275,7 +4234,7 @@
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="7"/>
@@ -4283,7 +4242,7 @@
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="7"/>
@@ -4291,7 +4250,7 @@
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="7"/>
@@ -4299,7 +4258,7 @@
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="7"/>
@@ -4307,7 +4266,7 @@
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="7"/>
@@ -4315,7 +4274,7 @@
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="7"/>
@@ -4323,7 +4282,7 @@
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="7"/>
@@ -4331,7 +4290,7 @@
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="7"/>
@@ -4339,7 +4298,7 @@
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="7"/>
@@ -4347,7 +4306,7 @@
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="7"/>
@@ -4355,7 +4314,7 @@
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="7"/>
@@ -4363,7 +4322,7 @@
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="7"/>
@@ -4371,7 +4330,7 @@
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="7"/>
@@ -4379,7 +4338,7 @@
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="7"/>
@@ -4387,7 +4346,7 @@
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="7"/>
@@ -4395,7 +4354,7 @@
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="7"/>
@@ -4403,7 +4362,7 @@
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="7"/>
@@ -4411,7 +4370,7 @@
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="7"/>
@@ -4419,7 +4378,7 @@
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="7"/>
@@ -4427,7 +4386,7 @@
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="7"/>
@@ -4435,7 +4394,7 @@
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="7"/>
@@ -4443,7 +4402,7 @@
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="7"/>
@@ -4451,7 +4410,7 @@
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="7"/>
@@ -4459,7 +4418,7 @@
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="7"/>
@@ -4467,7 +4426,7 @@
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="7"/>
@@ -4475,7 +4434,7 @@
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="7"/>
@@ -4483,7 +4442,7 @@
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="7"/>
@@ -4491,23 +4450,23 @@
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="2"/>
-      <c r="B222" s="2"/>
+      <c r="B222" s="5"/>
       <c r="C222" s="7"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="2"/>
-      <c r="B223" s="2"/>
+      <c r="B223" s="5"/>
       <c r="C223" s="7"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="7"/>
@@ -4515,7 +4474,7 @@
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="7"/>
@@ -4523,7 +4482,7 @@
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="2"/>
       <c r="B226" s="5"/>
       <c r="C226" s="7"/>
@@ -4531,81 +4490,49 @@
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="2"/>
-      <c r="B227" s="5"/>
+      <c r="B227" s="2"/>
       <c r="C227" s="7"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="7"/>
       <c r="D228" s="2"/>
-      <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
-    </row>
-    <row r="229" spans="1:6">
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="2"/>
-      <c r="B229" s="2"/>
+      <c r="B229" s="5"/>
       <c r="C229" s="7"/>
       <c r="D229" s="2"/>
-      <c r="E229" s="2"/>
-      <c r="F229" s="2"/>
-    </row>
-    <row r="230" spans="1:6">
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="2"/>
       <c r="B230" s="5"/>
       <c r="C230" s="7"/>
       <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
-    </row>
-    <row r="231" spans="1:6">
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="7"/>
       <c r="D231" s="2"/>
-      <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
-    </row>
-    <row r="232" spans="1:6">
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="7"/>
       <c r="D232" s="2"/>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="2"/>
-      <c r="B233" s="5"/>
+      <c r="B233" s="2"/>
       <c r="C233" s="7"/>
       <c r="D233" s="2"/>
-    </row>
-    <row r="234" spans="1:6">
-      <c r="A234" s="2"/>
-      <c r="B234" s="5"/>
-      <c r="C234" s="7"/>
-      <c r="D234" s="2"/>
-    </row>
-    <row r="235" spans="1:6">
-      <c r="A235" s="2"/>
-      <c r="B235" s="2"/>
-      <c r="C235" s="7"/>
-      <c r="D235" s="2"/>
-    </row>
-    <row r="236" spans="1:6">
-      <c r="A236" s="2"/>
-      <c r="B236" s="2"/>
-      <c r="C236" s="7"/>
-      <c r="D236" s="2"/>
-    </row>
-    <row r="237" spans="1:6">
-      <c r="A237" s="2"/>
-      <c r="B237" s="2"/>
-      <c r="C237" s="7"/>
-      <c r="D237" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4613,24 +4540,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26" style="16" customWidth="1"/>
+    <col min="5" max="5" width="26" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4644,12 +4571,12 @@
         <v>12</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -4660,13 +4587,13 @@
       <c r="D2" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
@@ -4675,11 +4602,11 @@
         <v>14</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="16">
+      <c r="E3" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -4690,11 +4617,11 @@
         <v>32</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="16">
+      <c r="E4" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -4705,11 +4632,11 @@
         <v>32</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="16">
+      <c r="E5" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -4720,13 +4647,13 @@
         <v>32</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="16">
+      <c r="E6" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
@@ -4735,11 +4662,11 @@
         <v>32</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="16">
+      <c r="E7" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -4750,11 +4677,11 @@
         <v>32</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="16">
+      <c r="E8" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -4765,11 +4692,11 @@
         <v>32</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="16">
+      <c r="E9" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -4780,11 +4707,11 @@
         <v>32</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="16">
+      <c r="E10" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
@@ -4795,11 +4722,11 @@
         <v>32</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="16">
+      <c r="E11" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -4810,11 +4737,11 @@
         <v>32</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="16">
+      <c r="E12" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -4825,11 +4752,11 @@
         <v>32</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="16">
+      <c r="E13" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>48</v>
       </c>
@@ -4840,13 +4767,13 @@
         <v>32</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="16">
+      <c r="E14" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>36</v>
@@ -4855,7 +4782,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="16">
+      <c r="E15" s="10">
         <v>4</v>
       </c>
     </row>
